--- a/function descriptions.xlsx
+++ b/function descriptions.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="7635" windowHeight="7740"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="7635" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="MOVE_FP()" sheetId="1" r:id="rId1"/>
+    <sheet name="GROW_SAV2()" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>biomass</t>
   </si>
@@ -56,6 +57,81 @@
   </si>
   <si>
     <t>When biomass &gt; maxtresholdtomove + maxamounttomove</t>
+  </si>
+  <si>
+    <t>biomass_x+1</t>
+  </si>
+  <si>
+    <t>biomass_x</t>
+  </si>
+  <si>
+    <t>GROW_SAV2()</t>
+  </si>
+  <si>
+    <t>Growth equation</t>
+  </si>
+  <si>
+    <t>maxrgr</t>
+  </si>
+  <si>
+    <t>lightlimitation</t>
+  </si>
+  <si>
+    <t>shadingbyFP</t>
+  </si>
+  <si>
+    <t>lightattenuation</t>
+  </si>
+  <si>
+    <t>Total_P</t>
+  </si>
+  <si>
+    <t>half_sat_P</t>
+  </si>
+  <si>
+    <t>Total_N</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>half_sat_N</t>
+  </si>
+  <si>
+    <t>Typical values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_x+1 = biomass_x + (maxrgr * biomass_x) * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1 / (1 + lightlimitation*biomass_x) + (shadingbyFP*FPbiomass) + lightattenuation)) * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Total_P / (Total_P + half_sat_P)) * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Total_N / (Total_N + half_sat_N)) - </t>
+  </si>
+  <si>
+    <t>(loss*biomass_x)</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>shading (self and FP)</t>
+  </si>
+  <si>
+    <t>P limitation</t>
+  </si>
+  <si>
+    <t>N limitation</t>
+  </si>
+  <si>
+    <t>loss (respiration, mortality)</t>
+  </si>
+  <si>
+    <t>difference</t>
   </si>
 </sst>
 </file>
@@ -108,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,11 +192,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -134,6 +225,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,11 +1094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179786816"/>
-        <c:axId val="179786240"/>
+        <c:axId val="178291840"/>
+        <c:axId val="178292416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179786816"/>
+        <c:axId val="178291840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,12 +1137,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179786240"/>
+        <c:crossAx val="178292416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179786240"/>
+        <c:axId val="178292416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1181,1488 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179786816"/>
+        <c:crossAx val="178291840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GROW_SAV2()'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biomass_x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'GROW_SAV2()'!$L$2:$L$229</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="228"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.421698113207547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7928571428571427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.121186440677965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4129032258064518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6730769230769234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9058823529411759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1147887323943664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.302702702702701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.472077922077922</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.763253012048192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.888372093023255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.001685393258427</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.104347826086958</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.19736842105263</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.281632653061223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.357920792079206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.426923076923078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.489252336448597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.596017699115045</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.641379310344828</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.681932773109246</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.718032786885246</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.778124999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30.802671755725193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.823880597014927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.841970802919704</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.869580419580423</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35.87945205479452</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36.886912751677855</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37.892105263157895</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38.895161290322577</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.896202531645571</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40.895341614906833</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41.892682926829274</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.888323353293409</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44.874855491329484</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45.865909090909092</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46.855586592178774</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.843956043956041</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>48.831081081081081</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.817021276595746</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50.801832460732982</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51.785567010309279</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52.768274111675126</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54.730788177339903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.710679611650484</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56.689712918660291</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57.667924528301882</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58.645348837209298</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59.622018348623854</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60.597963800904978</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61.573214285714293</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62.547797356828198</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63.521739130434781</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64.495064377682411</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65.467796610169501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66.439958158995807</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67.411570247933881</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68.382653061224488</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69.353225806451618</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>70.323306772908367</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71.292913385826765</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>72.26206225680933</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73.230769230769226</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74.199049429657791</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>75.166917293233084</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76.134386617100361</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>77.101470588235287</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78.068181818181813</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79.034532374100721</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>80.000533807829186</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80.966197183098586</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81.931533101045289</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82.896551724137936</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83.861262798634812</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84.825675675675683</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85.789799331103666</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86.753642384105959</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87.717213114754102</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88.680519480519479</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.643569131832805</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.606369426751584</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>91.568927444794951</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92.53125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.493343653250776</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94.455214723926389</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95.416869300911856</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96.378313253012038</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97.339552238805965</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>98.300591715976338</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>99.261436950146631</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>100.22209302325581</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>101.18256484149856</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>102.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>103.10297450424929</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>104.06292134831462</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>105.02270194986072</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105.98232044198895</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106.9417808219178</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107.90108695652174</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108.86024258760108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109.81925133689839</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110.77811671087532</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111.73684210526315</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112.69543080939948</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113.6538860103627</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114.61221079691516</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115.5704081632653</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116.52848101265823</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117.48643216080403</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118.44426433915213</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119.4019801980198</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120.35958230958231</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121.3170731707317</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122.27445520581115</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123.23173076923078</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124.18890214797136</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125.14597156398104</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126.10294117647058</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127.05981308411215</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128.01658932714616</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128.97327188940091</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129.92986270022885</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130.88636363636363</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131.84277652370201</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132.79910313901345</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133.75534521158127</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134.71150442477878</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135.66758241758242</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136.6235807860262</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137.57950108459872</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138.53534482758621</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139.49111349036403</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140.44680851063831</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141.40243128964059</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142.35798319327731</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143.31346555323591</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144.26887966804981</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145.2242268041237</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146.17950819672129</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147.1347250509165</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148.08987854251012</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149.0449698189135</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>150.95497017892643</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>151.90988142292491</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>152.86473477406679</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>153.81953125000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>154.77427184466021</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>155.72895752895752</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>156.68358925143954</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>157.6381679389313</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>158.5926944971537</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>159.54716981132074</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>160.50159474671668</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>161.45597014925374</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>162.41029684601114</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>163.36457564575647</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>164.31880733944953</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>165.2729927007299</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>166.2271324863884</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>167.18122743682309</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>168.13527827648116</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>169.08928571428572</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>170.04325044404973</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>170.99717314487634</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>171.95105448154658</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>172.9048951048951</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>173.85869565217391</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>174.81245674740484</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>175.76617900172118</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>176.71986301369861</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>177.67350936967634</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>178.62711864406779</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>179.58069139966273</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>180.53422818791947</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>181.48772954924874</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>182.44119601328904</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>183.39462809917356</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>184.34802631578947</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>185.30139116202946</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>186.25472312703582</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>187.20802269043762</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>188.16129032258064</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>189.1145264847512</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>190.06773162939297</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>191.02090620031797</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>191.9740506329114</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>192.9271653543307</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>193.88025078369904</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>194.83330733229329</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>195.7863354037267</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>196.73933539412675</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>197.69230769230768</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>198.64525267993872</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>199.59817073170731</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>200.551062215478</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>201.50392749244713</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>202.45676691729324</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>203.40958083832334</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>204.3623695976155</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>205.31513353115727</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>206.26787296898081</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>207.22058823529412</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>208.17327964860905</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>209.1259475218659</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>210.07859216255443</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>211.03121387283238</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>211.98381294964028</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>212.93638968481375</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>213.8889443651926</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>214.84147727272727</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>215.79398868458276</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>216.74647887323943</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>217.69894810659184</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>218.65139664804471</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>219.6038247566064</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>220.55623268698062</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>221.50862068965517</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>222.46098901098901</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>223.41333789329687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GROW_SAV2()'!$N$2:$N$229</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="228"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42169811320754702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7928571428571427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.121186440677965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4129032258064518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6730769230769234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9058823529411759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1147887323943664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3027027027027014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4720779220779221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7632530120481924</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8883720930232553</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0016853932584269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1043478260869577</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1973684210526301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.281632653061223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3579207920792058</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4269230769230781</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4892523364485974</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5454545454545467</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5960176991150448</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6413793103448278</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6819327731092457</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7180327868852459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7781249999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8026717557251928</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8238805970149272</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8419708029197039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8571428571428612</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8695804195804229</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8794520547945197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.8869127516778548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8921052631578945</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8951612903225765</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8962025316455708</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.8953416149068332</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8926829268292735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8883233532934085</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8748554913294839</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8659090909090921</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8555865921787742</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.843956043956041</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8310810810810807</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8170212765957459</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8018324607329816</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7855670103092791</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7682741116751259</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7307881773399032</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.7106796116504839</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6897129186602911</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6679245283018815</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.6453488372092977</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.622018348623854</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.5979638009049779</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.5732142857142932</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.5477973568281982</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.5217391304347814</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.4950643776824108</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.4677966101695006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.4399581589958075</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.4115702479338808</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.3826530612244881</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.3532258064516185</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.3233067729083672</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.2929133858267647</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.2620622568093296</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.2307692307692264</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1990494296577907</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.1669172932330838</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.1343866171003611</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1014705882352871</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.068181818181813</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0345323741007206</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0005338078291857</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.9661971830985863</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9315331010452894</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.8965517241379359</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.8612627986348116</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.8256756756756829</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.7897993311036657</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.7536423841059587</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.7172131147541023</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.6805194805194787</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.6435691318328054</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.6063694267515842</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.5689274447949515</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.53125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.4933436532507756</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.4552147239263888</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.4168693009118556</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.3783132530120383</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.3395522388059646</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.3005917159763385</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.2614369501466314</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.2220930232558089</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.1825648414985608</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.1428571428571388</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.1029745042492891</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.0629213483146174</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.0227019498607177</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.9823204419889464</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.9417808219178028</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.9010869565217376</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8602425876010784</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.8192513368983896</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7781167108753237</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.7368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.6954308093994825</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.6538860103626973</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.6122107969151642</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5704081632652986</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.5284810126582329</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4864321608040285</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.4442643391521273</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4019801980197997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.3595823095823079</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.3170731707317032</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2744552058111509</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2317307692307793</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.188902147971362</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.1459715639810355</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.1029411764705799</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.0598130841121502</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.0165893271461641</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.97327188940090537</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.92986270022885265</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.88636363636362603</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.84277652370201395</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.79910313901345376</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.75534521158127177</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.71150442477878073</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.6675824175824232</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.62358078602619571</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.57950108459871785</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.53534482758621493</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.49111349036402885</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.44680851063830573</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.40243128964058883</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.3579831932773061</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.31346555323591474</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.26887966804980579</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.22422680412370255</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.17950819672128659</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.13472505091650078</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8.9878542510120951E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.4969818913500603E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-4.5029821073569565E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-9.0118577075088524E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.13526522593321033</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.18046874999998863</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.22572815533979451</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.27104247104247747</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.31641074856045748</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.36183206106869648</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.40730550284629885</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.45283018867925762</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.49840525328332319</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.54402985074625576</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.58970315398886441</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.63542435424352561</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.68119266055046523</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.72700729927009888</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.772867513611601</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.81877256317690694</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.86472172351884069</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.91071428571427759</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.95674955595026745</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1.0028268551236579</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.0489455184534222</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.0951048951048961</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.1413043478260931</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-1.1875432525951624</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-1.2338209982788158</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.2801369863013861</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.3264906303236614</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.3728813559322077</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-1.4193086003372741</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-1.4657718120805328</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-1.5122704507512594</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-1.5588039867109558</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-1.6053719008264409</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-1.6519736842105317</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-1.6986088379705393</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-1.7452768729641832</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-1.7919773095623839</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-1.8387096774193594</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-1.8854735152488047</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-1.9322683706070336</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-1.9790937996820333</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-2.0259493670886002</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-2.0728346456693032</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-2.1197492163009599</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-2.1666926677067124</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-2.2136645962733041</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-2.2606646058732451</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-2.3076923076923208</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-2.3547473200612785</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-2.4018292682926869</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-2.4489377845220019</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-2.4960725075528671</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-2.5432330827067631</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-2.5904191616766639</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-2.6376304023845023</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-2.6848664688427277</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-2.7321270310191892</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-2.779411764705884</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-2.8267203513909465</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-2.8740524781341037</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-2.921407837445571</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-2.9687861271676184</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-3.0161870503597186</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-3.0636103151862528</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-3.1110556348073999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-3.1585227272727252</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-3.2060113154172427</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-3.2535211267605746</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-3.3010518934081574</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-3.3486033519552905</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-3.3961752433935999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-3.4437673130193787</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-3.4913793103448256</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-3.5390109890109898</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-3.5866621067031303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="178306368"/>
+        <c:axId val="179070080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="178306368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179070080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="179070080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178306368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1124,6 +2698,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>65617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2049,7 +3660,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="2">
-        <f>($B$10/($B$11-$B$12))*(H52-$B$12)</f>
+        <f t="shared" ref="I52:I66" si="0">($B$10/($B$11-$B$12))*(H52-$B$12)</f>
         <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
@@ -2061,7 +3672,7 @@
         <v>51</v>
       </c>
       <c r="I53" s="2">
-        <f>($B$10/($B$11-$B$12))*(H53-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -2070,7 +3681,7 @@
         <v>52</v>
       </c>
       <c r="I54" s="2">
-        <f>($B$10/($B$11-$B$12))*(H54-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
@@ -2079,7 +3690,7 @@
         <v>53</v>
       </c>
       <c r="I55" s="2">
-        <f>($B$10/($B$11-$B$12))*(H55-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -2088,7 +3699,7 @@
         <v>54</v>
       </c>
       <c r="I56" s="2">
-        <f>($B$10/($B$11-$B$12))*(H56-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -2097,7 +3708,7 @@
         <v>55</v>
       </c>
       <c r="I57" s="2">
-        <f>($B$10/($B$11-$B$12))*(H57-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2106,7 +3717,7 @@
         <v>56</v>
       </c>
       <c r="I58" s="2">
-        <f>($B$10/($B$11-$B$12))*(H58-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
@@ -2115,7 +3726,7 @@
         <v>57</v>
       </c>
       <c r="I59" s="2">
-        <f>($B$10/($B$11-$B$12))*(H59-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
     </row>
@@ -2124,7 +3735,7 @@
         <v>58</v>
       </c>
       <c r="I60" s="2">
-        <f>($B$10/($B$11-$B$12))*(H60-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
@@ -2133,7 +3744,7 @@
         <v>59</v>
       </c>
       <c r="I61" s="2">
-        <f>($B$10/($B$11-$B$12))*(H61-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
@@ -2142,7 +3753,7 @@
         <v>60</v>
       </c>
       <c r="I62" s="2">
-        <f>($B$10/($B$11-$B$12))*(H62-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2151,7 +3762,7 @@
         <v>61</v>
       </c>
       <c r="I63" s="2">
-        <f>($B$10/($B$11-$B$12))*(H63-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -2160,7 +3771,7 @@
         <v>62</v>
       </c>
       <c r="I64" s="2">
-        <f>($B$10/($B$11-$B$12))*(H64-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -2169,7 +3780,7 @@
         <v>63</v>
       </c>
       <c r="I65" s="2">
-        <f>($B$10/($B$11-$B$12))*(H65-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
@@ -2178,7 +3789,7 @@
         <v>64</v>
       </c>
       <c r="I66" s="2">
-        <f>($B$10/($B$11-$B$12))*(H66-$B$12)</f>
+        <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -2187,7 +3798,7 @@
         <v>65</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I107" si="0">($B$10/($B$11-$B$12))*(H67-$B$12)</f>
+        <f t="shared" ref="I67:I107" si="1">($B$10/($B$11-$B$12))*(H67-$B$12)</f>
         <v>1.5</v>
       </c>
     </row>
@@ -2196,7 +3807,7 @@
         <v>66</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
     </row>
@@ -2205,7 +3816,7 @@
         <v>67</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
@@ -2214,7 +3825,7 @@
         <v>68</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
@@ -2223,7 +3834,7 @@
         <v>69</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9000000000000001</v>
       </c>
     </row>
@@ -2232,7 +3843,7 @@
         <v>70</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2241,7 +3852,7 @@
         <v>71</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -2250,7 +3861,7 @@
         <v>72</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -2259,7 +3870,7 @@
         <v>73</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
@@ -2268,7 +3879,7 @@
         <v>74</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -2277,7 +3888,7 @@
         <v>75</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
@@ -2286,7 +3897,7 @@
         <v>76</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
     </row>
@@ -2295,7 +3906,7 @@
         <v>77</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
     </row>
@@ -2304,7 +3915,7 @@
         <v>78</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
       </c>
     </row>
@@ -2313,7 +3924,7 @@
         <v>79</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9000000000000004</v>
       </c>
     </row>
@@ -2322,7 +3933,7 @@
         <v>80</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -2331,7 +3942,7 @@
         <v>81</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
     </row>
@@ -2340,7 +3951,7 @@
         <v>82</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
     </row>
@@ -2349,7 +3960,7 @@
         <v>83</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3000000000000003</v>
       </c>
     </row>
@@ -2358,7 +3969,7 @@
         <v>84</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4000000000000004</v>
       </c>
     </row>
@@ -2367,7 +3978,7 @@
         <v>85</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
@@ -2376,7 +3987,7 @@
         <v>86</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
     </row>
@@ -2385,7 +3996,7 @@
         <v>87</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
     </row>
@@ -2394,7 +4005,7 @@
         <v>88</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8000000000000003</v>
       </c>
     </row>
@@ -2403,7 +4014,7 @@
         <v>89</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
@@ -2412,7 +4023,7 @@
         <v>90</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2421,7 +4032,7 @@
         <v>91</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1000000000000005</v>
       </c>
     </row>
@@ -2430,7 +4041,7 @@
         <v>92</v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
     </row>
@@ -2439,7 +4050,7 @@
         <v>93</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
     </row>
@@ -2448,7 +4059,7 @@
         <v>94</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -2457,7 +4068,7 @@
         <v>95</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2466,7 +4077,7 @@
         <v>96</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6000000000000005</v>
       </c>
     </row>
@@ -2475,7 +4086,7 @@
         <v>97</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
     </row>
@@ -2484,7 +4095,7 @@
         <v>98</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
     </row>
@@ -2493,7 +4104,7 @@
         <v>99</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -2502,7 +4113,7 @@
         <v>100</v>
       </c>
       <c r="I102" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2511,7 +4122,7 @@
         <v>101</v>
       </c>
       <c r="I103" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1000000000000005</v>
       </c>
       <c r="J103" s="3"/>
@@ -2521,7 +4132,7 @@
         <v>102</v>
       </c>
       <c r="I104" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="J104" s="3"/>
@@ -2531,7 +4142,7 @@
         <v>103</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3000000000000007</v>
       </c>
       <c r="J105" s="3"/>
@@ -2541,7 +4152,7 @@
         <v>104</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
       <c r="J106" s="3"/>
@@ -2551,7 +4162,7 @@
         <v>105</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="J107" s="3"/>
@@ -2561,7 +4172,7 @@
         <v>106</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" ref="I104:I132" si="1">H108-$B$11</f>
+        <f t="shared" ref="I108:I132" si="2">H108-$B$11</f>
         <v>6</v>
       </c>
       <c r="J108" s="3" t="s">
@@ -2573,7 +4184,7 @@
         <v>107</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J109" s="3" t="s">
@@ -2585,7 +4196,7 @@
         <v>108</v>
       </c>
       <c r="I110" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J110" s="3" t="s">
@@ -2597,7 +4208,7 @@
         <v>109</v>
       </c>
       <c r="I111" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J111" s="3" t="s">
@@ -2609,7 +4220,7 @@
         <v>110</v>
       </c>
       <c r="I112" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J112" s="3" t="s">
@@ -2621,7 +4232,7 @@
         <v>111</v>
       </c>
       <c r="I113" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J113" s="3" t="s">
@@ -2633,7 +4244,7 @@
         <v>112</v>
       </c>
       <c r="I114" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J114" s="3" t="s">
@@ -2645,7 +4256,7 @@
         <v>113</v>
       </c>
       <c r="I115" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J115" s="3" t="s">
@@ -2657,7 +4268,7 @@
         <v>114</v>
       </c>
       <c r="I116" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="J116" s="3" t="s">
@@ -2669,7 +4280,7 @@
         <v>115</v>
       </c>
       <c r="I117" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J117" s="3" t="s">
@@ -2681,7 +4292,7 @@
         <v>116</v>
       </c>
       <c r="I118" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="J118" s="3" t="s">
@@ -2693,7 +4304,7 @@
         <v>117</v>
       </c>
       <c r="I119" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J119" s="3" t="s">
@@ -2705,7 +4316,7 @@
         <v>118</v>
       </c>
       <c r="I120" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J120" s="3" t="s">
@@ -2717,7 +4328,7 @@
         <v>119</v>
       </c>
       <c r="I121" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="J121" s="3" t="s">
@@ -2729,7 +4340,7 @@
         <v>120</v>
       </c>
       <c r="I122" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="J122" s="3" t="s">
@@ -2741,7 +4352,7 @@
         <v>121</v>
       </c>
       <c r="I123" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="J123" s="3" t="s">
@@ -2753,7 +4364,7 @@
         <v>122</v>
       </c>
       <c r="I124" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J124" s="3" t="s">
@@ -2765,7 +4376,7 @@
         <v>123</v>
       </c>
       <c r="I125" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="J125" s="3" t="s">
@@ -2777,7 +4388,7 @@
         <v>124</v>
       </c>
       <c r="I126" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J126" s="3" t="s">
@@ -2789,7 +4400,7 @@
         <v>125</v>
       </c>
       <c r="I127" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J127" s="3" t="s">
@@ -2801,7 +4412,7 @@
         <v>126</v>
       </c>
       <c r="I128" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="J128" s="3" t="s">
@@ -2813,7 +4424,7 @@
         <v>127</v>
       </c>
       <c r="I129" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="J129" s="3" t="s">
@@ -2825,7 +4436,7 @@
         <v>128</v>
       </c>
       <c r="I130" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="J130" s="3" t="s">
@@ -2837,7 +4448,7 @@
         <v>129</v>
       </c>
       <c r="I131" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="J131" s="3" t="s">
@@ -2849,7 +4460,7 @@
         <v>130</v>
       </c>
       <c r="I132" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="J132" s="3" t="s">
@@ -2867,4 +4478,3096 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N229"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f>M2+($B$12*M2)*(1/(1+($B$13*M2)+($B$14*M2)+($B$15)))*($B$16/($B$16+$B$17))*($B$18/($B$18+$B$19))-($B$20*M2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>L2-M2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <f>M3+($B$12*M3)*(1/(1+($B$13*M3)+($B$14*M3)+($B$15)))*($B$16/($B$16+$B$17))*($B$18/($B$18+$B$19))-($B$20*M3)</f>
+        <v>1.421698113207547</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="0">L3-M3</f>
+        <v>0.42169811320754702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <f>M4+($B$12*M4)*(1/(1+($B$13*M4)+($B$14*M4)+($B$15)))*($B$16/($B$16+$B$17))*($B$18/($B$18+$B$19))-($B$20*M4)</f>
+        <v>2.7928571428571427</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.7928571428571427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L68" si="1">M5+($B$12*M5)*(1/(1+($B$13*M5)+($B$14*M5)+($B$15)))*($B$16/($B$16+$B$17))*($B$18/($B$18+$B$19))-($B$20*M5)</f>
+        <v>4.121186440677965</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1.121186440677965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>5.4129032258064518</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1.4129032258064518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>6.6730769230769234</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1.6730769230769234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>7.9058823529411759</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1.9058823529411759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>9.1147887323943664</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2.1147887323943664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>10.302702702702701</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>2.3027027027027014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>11.472077922077922</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>2.4720779220779221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>12.625</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>13.763253012048192</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>2.7632530120481924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>14.888372093023255</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>2.8883720930232553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>16.001685393258427</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3.0016853932584269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>17.104347826086958</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>3.1043478260869577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>18.19736842105263</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>3.1973684210526301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>19.281632653061223</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>3.281632653061223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>20.357920792079206</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>3.3579207920792058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>21.426923076923078</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>3.4269230769230781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>22.489252336448597</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>3.4892523364485974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>23.545454545454547</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>3.5454545454545467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>24.596017699115045</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>3.5960176991150448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>25.641379310344828</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>3.6413793103448278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>26.681932773109246</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>3.6819327731092457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>27.718032786885246</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>3.7180327868852459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>28.75</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>29.778124999999999</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>3.7781249999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>30.802671755725193</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>3.8026717557251928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>31.823880597014927</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>3.8238805970149272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>32.841970802919704</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>3.8419708029197039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>33.857142857142861</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>3.8571428571428612</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>34.869580419580423</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>3.8695804195804229</v>
+      </c>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>35.87945205479452</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>3.8794520547945197</v>
+      </c>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>36.886912751677855</v>
+      </c>
+      <c r="M35">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>3.8869127516778548</v>
+      </c>
+    </row>
+    <row r="36" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>37.892105263157895</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>3.8921052631578945</v>
+      </c>
+    </row>
+    <row r="37" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>38.895161290322577</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>3.8951612903225765</v>
+      </c>
+    </row>
+    <row r="38" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>39.896202531645571</v>
+      </c>
+      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>3.8962025316455708</v>
+      </c>
+    </row>
+    <row r="39" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>40.895341614906833</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>3.8953416149068332</v>
+      </c>
+    </row>
+    <row r="40" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>41.892682926829274</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>3.8926829268292735</v>
+      </c>
+    </row>
+    <row r="41" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>42.888323353293409</v>
+      </c>
+      <c r="M41">
+        <v>39</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>3.8883233532934085</v>
+      </c>
+    </row>
+    <row r="42" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>43.882352941176471</v>
+      </c>
+      <c r="M42">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>3.882352941176471</v>
+      </c>
+    </row>
+    <row r="43" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>44.874855491329484</v>
+      </c>
+      <c r="M43">
+        <v>41</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>3.8748554913294839</v>
+      </c>
+    </row>
+    <row r="44" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>45.865909090909092</v>
+      </c>
+      <c r="M44">
+        <v>42</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>3.8659090909090921</v>
+      </c>
+    </row>
+    <row r="45" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>46.855586592178774</v>
+      </c>
+      <c r="M45">
+        <v>43</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>3.8555865921787742</v>
+      </c>
+    </row>
+    <row r="46" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>47.843956043956041</v>
+      </c>
+      <c r="M46">
+        <v>44</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>3.843956043956041</v>
+      </c>
+    </row>
+    <row r="47" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>48.831081081081081</v>
+      </c>
+      <c r="M47">
+        <v>45</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>3.8310810810810807</v>
+      </c>
+    </row>
+    <row r="48" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>49.817021276595746</v>
+      </c>
+      <c r="M48">
+        <v>46</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>3.8170212765957459</v>
+      </c>
+    </row>
+    <row r="49" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>50.801832460732982</v>
+      </c>
+      <c r="M49">
+        <v>47</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>3.8018324607329816</v>
+      </c>
+    </row>
+    <row r="50" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>51.785567010309279</v>
+      </c>
+      <c r="M50">
+        <v>48</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>3.7855670103092791</v>
+      </c>
+    </row>
+    <row r="51" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>52.768274111675126</v>
+      </c>
+      <c r="M51">
+        <v>49</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>3.7682741116751259</v>
+      </c>
+    </row>
+    <row r="52" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>53.75</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="53" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>54.730788177339903</v>
+      </c>
+      <c r="M53">
+        <v>51</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>3.7307881773399032</v>
+      </c>
+    </row>
+    <row r="54" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>55.710679611650484</v>
+      </c>
+      <c r="M54">
+        <v>52</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>3.7106796116504839</v>
+      </c>
+    </row>
+    <row r="55" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>56.689712918660291</v>
+      </c>
+      <c r="M55">
+        <v>53</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>3.6897129186602911</v>
+      </c>
+    </row>
+    <row r="56" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>57.667924528301882</v>
+      </c>
+      <c r="M56">
+        <v>54</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>3.6679245283018815</v>
+      </c>
+    </row>
+    <row r="57" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>58.645348837209298</v>
+      </c>
+      <c r="M57">
+        <v>55</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>3.6453488372092977</v>
+      </c>
+    </row>
+    <row r="58" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>59.622018348623854</v>
+      </c>
+      <c r="M58">
+        <v>56</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>3.622018348623854</v>
+      </c>
+    </row>
+    <row r="59" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>60.597963800904978</v>
+      </c>
+      <c r="M59">
+        <v>57</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>3.5979638009049779</v>
+      </c>
+    </row>
+    <row r="60" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>61.573214285714293</v>
+      </c>
+      <c r="M60">
+        <v>58</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>3.5732142857142932</v>
+      </c>
+    </row>
+    <row r="61" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>62.547797356828198</v>
+      </c>
+      <c r="M61">
+        <v>59</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>3.5477973568281982</v>
+      </c>
+    </row>
+    <row r="62" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>63.521739130434781</v>
+      </c>
+      <c r="M62">
+        <v>60</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>3.5217391304347814</v>
+      </c>
+    </row>
+    <row r="63" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>64.495064377682411</v>
+      </c>
+      <c r="M63">
+        <v>61</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>3.4950643776824108</v>
+      </c>
+    </row>
+    <row r="64" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>65.467796610169501</v>
+      </c>
+      <c r="M64">
+        <v>62</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>3.4677966101695006</v>
+      </c>
+    </row>
+    <row r="65" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>66.439958158995807</v>
+      </c>
+      <c r="M65">
+        <v>63</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>3.4399581589958075</v>
+      </c>
+    </row>
+    <row r="66" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>67.411570247933881</v>
+      </c>
+      <c r="M66">
+        <v>64</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>3.4115702479338808</v>
+      </c>
+    </row>
+    <row r="67" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>68.382653061224488</v>
+      </c>
+      <c r="M67">
+        <v>65</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="2">L67-M67</f>
+        <v>3.3826530612244881</v>
+      </c>
+    </row>
+    <row r="68" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>69.353225806451618</v>
+      </c>
+      <c r="M68">
+        <v>66</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="2"/>
+        <v>3.3532258064516185</v>
+      </c>
+    </row>
+    <row r="69" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <f t="shared" ref="L69:L132" si="3">M69+($B$12*M69)*(1/(1+($B$13*M69)+($B$14*M69)+($B$15)))*($B$16/($B$16+$B$17))*($B$18/($B$18+$B$19))-($B$20*M69)</f>
+        <v>70.323306772908367</v>
+      </c>
+      <c r="M69">
+        <v>67</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="2"/>
+        <v>3.3233067729083672</v>
+      </c>
+    </row>
+    <row r="70" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <f t="shared" si="3"/>
+        <v>71.292913385826765</v>
+      </c>
+      <c r="M70">
+        <v>68</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="2"/>
+        <v>3.2929133858267647</v>
+      </c>
+    </row>
+    <row r="71" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <f t="shared" si="3"/>
+        <v>72.26206225680933</v>
+      </c>
+      <c r="M71">
+        <v>69</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="2"/>
+        <v>3.2620622568093296</v>
+      </c>
+    </row>
+    <row r="72" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <f t="shared" si="3"/>
+        <v>73.230769230769226</v>
+      </c>
+      <c r="M72">
+        <v>70</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="2"/>
+        <v>3.2307692307692264</v>
+      </c>
+    </row>
+    <row r="73" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <f t="shared" si="3"/>
+        <v>74.199049429657791</v>
+      </c>
+      <c r="M73">
+        <v>71</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="2"/>
+        <v>3.1990494296577907</v>
+      </c>
+    </row>
+    <row r="74" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <f t="shared" si="3"/>
+        <v>75.166917293233084</v>
+      </c>
+      <c r="M74">
+        <v>72</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="2"/>
+        <v>3.1669172932330838</v>
+      </c>
+    </row>
+    <row r="75" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <f t="shared" si="3"/>
+        <v>76.134386617100361</v>
+      </c>
+      <c r="M75">
+        <v>73</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="2"/>
+        <v>3.1343866171003611</v>
+      </c>
+    </row>
+    <row r="76" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <f t="shared" si="3"/>
+        <v>77.101470588235287</v>
+      </c>
+      <c r="M76">
+        <v>74</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="2"/>
+        <v>3.1014705882352871</v>
+      </c>
+    </row>
+    <row r="77" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <f t="shared" si="3"/>
+        <v>78.068181818181813</v>
+      </c>
+      <c r="M77">
+        <v>75</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="2"/>
+        <v>3.068181818181813</v>
+      </c>
+    </row>
+    <row r="78" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <f t="shared" si="3"/>
+        <v>79.034532374100721</v>
+      </c>
+      <c r="M78">
+        <v>76</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="2"/>
+        <v>3.0345323741007206</v>
+      </c>
+    </row>
+    <row r="79" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <f t="shared" si="3"/>
+        <v>80.000533807829186</v>
+      </c>
+      <c r="M79">
+        <v>77</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="2"/>
+        <v>3.0005338078291857</v>
+      </c>
+    </row>
+    <row r="80" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <f t="shared" si="3"/>
+        <v>80.966197183098586</v>
+      </c>
+      <c r="M80">
+        <v>78</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="2"/>
+        <v>2.9661971830985863</v>
+      </c>
+    </row>
+    <row r="81" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <f t="shared" si="3"/>
+        <v>81.931533101045289</v>
+      </c>
+      <c r="M81">
+        <v>79</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="2"/>
+        <v>2.9315331010452894</v>
+      </c>
+    </row>
+    <row r="82" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <f t="shared" si="3"/>
+        <v>82.896551724137936</v>
+      </c>
+      <c r="M82">
+        <v>80</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="2"/>
+        <v>2.8965517241379359</v>
+      </c>
+    </row>
+    <row r="83" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <f t="shared" si="3"/>
+        <v>83.861262798634812</v>
+      </c>
+      <c r="M83">
+        <v>81</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="2"/>
+        <v>2.8612627986348116</v>
+      </c>
+    </row>
+    <row r="84" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <f t="shared" si="3"/>
+        <v>84.825675675675683</v>
+      </c>
+      <c r="M84">
+        <v>82</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="2"/>
+        <v>2.8256756756756829</v>
+      </c>
+    </row>
+    <row r="85" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <f t="shared" si="3"/>
+        <v>85.789799331103666</v>
+      </c>
+      <c r="M85">
+        <v>83</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="2"/>
+        <v>2.7897993311036657</v>
+      </c>
+    </row>
+    <row r="86" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <f t="shared" si="3"/>
+        <v>86.753642384105959</v>
+      </c>
+      <c r="M86">
+        <v>84</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="2"/>
+        <v>2.7536423841059587</v>
+      </c>
+    </row>
+    <row r="87" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <f t="shared" si="3"/>
+        <v>87.717213114754102</v>
+      </c>
+      <c r="M87">
+        <v>85</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="2"/>
+        <v>2.7172131147541023</v>
+      </c>
+    </row>
+    <row r="88" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <f t="shared" si="3"/>
+        <v>88.680519480519479</v>
+      </c>
+      <c r="M88">
+        <v>86</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="2"/>
+        <v>2.6805194805194787</v>
+      </c>
+    </row>
+    <row r="89" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <f t="shared" si="3"/>
+        <v>89.643569131832805</v>
+      </c>
+      <c r="M89">
+        <v>87</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="2"/>
+        <v>2.6435691318328054</v>
+      </c>
+    </row>
+    <row r="90" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <f t="shared" si="3"/>
+        <v>90.606369426751584</v>
+      </c>
+      <c r="M90">
+        <v>88</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="2"/>
+        <v>2.6063694267515842</v>
+      </c>
+    </row>
+    <row r="91" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <f t="shared" si="3"/>
+        <v>91.568927444794951</v>
+      </c>
+      <c r="M91">
+        <v>89</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="2"/>
+        <v>2.5689274447949515</v>
+      </c>
+    </row>
+    <row r="92" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <f t="shared" si="3"/>
+        <v>92.53125</v>
+      </c>
+      <c r="M92">
+        <v>90</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="2"/>
+        <v>2.53125</v>
+      </c>
+    </row>
+    <row r="93" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <f t="shared" si="3"/>
+        <v>93.493343653250776</v>
+      </c>
+      <c r="M93">
+        <v>91</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="2"/>
+        <v>2.4933436532507756</v>
+      </c>
+    </row>
+    <row r="94" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <f t="shared" si="3"/>
+        <v>94.455214723926389</v>
+      </c>
+      <c r="M94">
+        <v>92</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="2"/>
+        <v>2.4552147239263888</v>
+      </c>
+    </row>
+    <row r="95" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <f t="shared" si="3"/>
+        <v>95.416869300911856</v>
+      </c>
+      <c r="M95">
+        <v>93</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="2"/>
+        <v>2.4168693009118556</v>
+      </c>
+    </row>
+    <row r="96" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <f t="shared" si="3"/>
+        <v>96.378313253012038</v>
+      </c>
+      <c r="M96">
+        <v>94</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="2"/>
+        <v>2.3783132530120383</v>
+      </c>
+    </row>
+    <row r="97" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <f t="shared" si="3"/>
+        <v>97.339552238805965</v>
+      </c>
+      <c r="M97">
+        <v>95</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="2"/>
+        <v>2.3395522388059646</v>
+      </c>
+    </row>
+    <row r="98" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <f t="shared" si="3"/>
+        <v>98.300591715976338</v>
+      </c>
+      <c r="M98">
+        <v>96</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="2"/>
+        <v>2.3005917159763385</v>
+      </c>
+    </row>
+    <row r="99" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <f t="shared" si="3"/>
+        <v>99.261436950146631</v>
+      </c>
+      <c r="M99">
+        <v>97</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="2"/>
+        <v>2.2614369501466314</v>
+      </c>
+    </row>
+    <row r="100" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <f t="shared" si="3"/>
+        <v>100.22209302325581</v>
+      </c>
+      <c r="M100">
+        <v>98</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="2"/>
+        <v>2.2220930232558089</v>
+      </c>
+    </row>
+    <row r="101" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <f t="shared" si="3"/>
+        <v>101.18256484149856</v>
+      </c>
+      <c r="M101">
+        <v>99</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="2"/>
+        <v>2.1825648414985608</v>
+      </c>
+    </row>
+    <row r="102" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <f t="shared" si="3"/>
+        <v>102.14285714285714</v>
+      </c>
+      <c r="M102">
+        <v>100</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="2"/>
+        <v>2.1428571428571388</v>
+      </c>
+    </row>
+    <row r="103" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <f t="shared" si="3"/>
+        <v>103.10297450424929</v>
+      </c>
+      <c r="M103">
+        <v>101</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="2"/>
+        <v>2.1029745042492891</v>
+      </c>
+    </row>
+    <row r="104" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <f t="shared" si="3"/>
+        <v>104.06292134831462</v>
+      </c>
+      <c r="M104">
+        <v>102</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="2"/>
+        <v>2.0629213483146174</v>
+      </c>
+    </row>
+    <row r="105" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <f t="shared" si="3"/>
+        <v>105.02270194986072</v>
+      </c>
+      <c r="M105">
+        <v>103</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="2"/>
+        <v>2.0227019498607177</v>
+      </c>
+    </row>
+    <row r="106" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <f t="shared" si="3"/>
+        <v>105.98232044198895</v>
+      </c>
+      <c r="M106">
+        <v>104</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="2"/>
+        <v>1.9823204419889464</v>
+      </c>
+    </row>
+    <row r="107" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <f t="shared" si="3"/>
+        <v>106.9417808219178</v>
+      </c>
+      <c r="M107">
+        <v>105</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="2"/>
+        <v>1.9417808219178028</v>
+      </c>
+    </row>
+    <row r="108" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <f t="shared" si="3"/>
+        <v>107.90108695652174</v>
+      </c>
+      <c r="M108">
+        <v>106</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="2"/>
+        <v>1.9010869565217376</v>
+      </c>
+    </row>
+    <row r="109" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <f t="shared" si="3"/>
+        <v>108.86024258760108</v>
+      </c>
+      <c r="M109">
+        <v>107</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="2"/>
+        <v>1.8602425876010784</v>
+      </c>
+    </row>
+    <row r="110" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <f t="shared" si="3"/>
+        <v>109.81925133689839</v>
+      </c>
+      <c r="M110">
+        <v>108</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="2"/>
+        <v>1.8192513368983896</v>
+      </c>
+    </row>
+    <row r="111" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <f t="shared" si="3"/>
+        <v>110.77811671087532</v>
+      </c>
+      <c r="M111">
+        <v>109</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="2"/>
+        <v>1.7781167108753237</v>
+      </c>
+    </row>
+    <row r="112" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <f t="shared" si="3"/>
+        <v>111.73684210526315</v>
+      </c>
+      <c r="M112">
+        <v>110</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="2"/>
+        <v>1.7368421052631504</v>
+      </c>
+    </row>
+    <row r="113" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <f t="shared" si="3"/>
+        <v>112.69543080939948</v>
+      </c>
+      <c r="M113">
+        <v>111</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="2"/>
+        <v>1.6954308093994825</v>
+      </c>
+    </row>
+    <row r="114" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <f t="shared" si="3"/>
+        <v>113.6538860103627</v>
+      </c>
+      <c r="M114">
+        <v>112</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="2"/>
+        <v>1.6538860103626973</v>
+      </c>
+    </row>
+    <row r="115" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <f t="shared" si="3"/>
+        <v>114.61221079691516</v>
+      </c>
+      <c r="M115">
+        <v>113</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="2"/>
+        <v>1.6122107969151642</v>
+      </c>
+    </row>
+    <row r="116" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <f t="shared" si="3"/>
+        <v>115.5704081632653</v>
+      </c>
+      <c r="M116">
+        <v>114</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="2"/>
+        <v>1.5704081632652986</v>
+      </c>
+    </row>
+    <row r="117" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <f t="shared" si="3"/>
+        <v>116.52848101265823</v>
+      </c>
+      <c r="M117">
+        <v>115</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="2"/>
+        <v>1.5284810126582329</v>
+      </c>
+    </row>
+    <row r="118" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <f t="shared" si="3"/>
+        <v>117.48643216080403</v>
+      </c>
+      <c r="M118">
+        <v>116</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="2"/>
+        <v>1.4864321608040285</v>
+      </c>
+    </row>
+    <row r="119" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <f t="shared" si="3"/>
+        <v>118.44426433915213</v>
+      </c>
+      <c r="M119">
+        <v>117</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="2"/>
+        <v>1.4442643391521273</v>
+      </c>
+    </row>
+    <row r="120" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <f t="shared" si="3"/>
+        <v>119.4019801980198</v>
+      </c>
+      <c r="M120">
+        <v>118</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="2"/>
+        <v>1.4019801980197997</v>
+      </c>
+    </row>
+    <row r="121" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <f t="shared" si="3"/>
+        <v>120.35958230958231</v>
+      </c>
+      <c r="M121">
+        <v>119</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="2"/>
+        <v>1.3595823095823079</v>
+      </c>
+    </row>
+    <row r="122" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <f t="shared" si="3"/>
+        <v>121.3170731707317</v>
+      </c>
+      <c r="M122">
+        <v>120</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="2"/>
+        <v>1.3170731707317032</v>
+      </c>
+    </row>
+    <row r="123" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <f t="shared" si="3"/>
+        <v>122.27445520581115</v>
+      </c>
+      <c r="M123">
+        <v>121</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="2"/>
+        <v>1.2744552058111509</v>
+      </c>
+    </row>
+    <row r="124" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <f t="shared" si="3"/>
+        <v>123.23173076923078</v>
+      </c>
+      <c r="M124">
+        <v>122</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="2"/>
+        <v>1.2317307692307793</v>
+      </c>
+    </row>
+    <row r="125" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <f t="shared" si="3"/>
+        <v>124.18890214797136</v>
+      </c>
+      <c r="M125">
+        <v>123</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="2"/>
+        <v>1.188902147971362</v>
+      </c>
+    </row>
+    <row r="126" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <f t="shared" si="3"/>
+        <v>125.14597156398104</v>
+      </c>
+      <c r="M126">
+        <v>124</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="2"/>
+        <v>1.1459715639810355</v>
+      </c>
+    </row>
+    <row r="127" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <f t="shared" si="3"/>
+        <v>126.10294117647058</v>
+      </c>
+      <c r="M127">
+        <v>125</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="2"/>
+        <v>1.1029411764705799</v>
+      </c>
+    </row>
+    <row r="128" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <f t="shared" si="3"/>
+        <v>127.05981308411215</v>
+      </c>
+      <c r="M128">
+        <v>126</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="2"/>
+        <v>1.0598130841121502</v>
+      </c>
+    </row>
+    <row r="129" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <f t="shared" si="3"/>
+        <v>128.01658932714616</v>
+      </c>
+      <c r="M129">
+        <v>127</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="2"/>
+        <v>1.0165893271461641</v>
+      </c>
+    </row>
+    <row r="130" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <f t="shared" si="3"/>
+        <v>128.97327188940091</v>
+      </c>
+      <c r="M130">
+        <v>128</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="2"/>
+        <v>0.97327188940090537</v>
+      </c>
+    </row>
+    <row r="131" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <f t="shared" si="3"/>
+        <v>129.92986270022885</v>
+      </c>
+      <c r="M131">
+        <v>129</v>
+      </c>
+      <c r="N131">
+        <f t="shared" ref="N131:N194" si="4">L131-M131</f>
+        <v>0.92986270022885265</v>
+      </c>
+    </row>
+    <row r="132" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <f t="shared" si="3"/>
+        <v>130.88636363636363</v>
+      </c>
+      <c r="M132">
+        <v>130</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="4"/>
+        <v>0.88636363636362603</v>
+      </c>
+    </row>
+    <row r="133" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <f t="shared" ref="L133:L196" si="5">M133+($B$12*M133)*(1/(1+($B$13*M133)+($B$14*M133)+($B$15)))*($B$16/($B$16+$B$17))*($B$18/($B$18+$B$19))-($B$20*M133)</f>
+        <v>131.84277652370201</v>
+      </c>
+      <c r="M133">
+        <v>131</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="4"/>
+        <v>0.84277652370201395</v>
+      </c>
+    </row>
+    <row r="134" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <f t="shared" si="5"/>
+        <v>132.79910313901345</v>
+      </c>
+      <c r="M134">
+        <v>132</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="4"/>
+        <v>0.79910313901345376</v>
+      </c>
+    </row>
+    <row r="135" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <f t="shared" si="5"/>
+        <v>133.75534521158127</v>
+      </c>
+      <c r="M135">
+        <v>133</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="4"/>
+        <v>0.75534521158127177</v>
+      </c>
+    </row>
+    <row r="136" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <f t="shared" si="5"/>
+        <v>134.71150442477878</v>
+      </c>
+      <c r="M136">
+        <v>134</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="4"/>
+        <v>0.71150442477878073</v>
+      </c>
+    </row>
+    <row r="137" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <f t="shared" si="5"/>
+        <v>135.66758241758242</v>
+      </c>
+      <c r="M137">
+        <v>135</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="4"/>
+        <v>0.6675824175824232</v>
+      </c>
+    </row>
+    <row r="138" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L138">
+        <f t="shared" si="5"/>
+        <v>136.6235807860262</v>
+      </c>
+      <c r="M138">
+        <v>136</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="4"/>
+        <v>0.62358078602619571</v>
+      </c>
+    </row>
+    <row r="139" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <f t="shared" si="5"/>
+        <v>137.57950108459872</v>
+      </c>
+      <c r="M139">
+        <v>137</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="4"/>
+        <v>0.57950108459871785</v>
+      </c>
+    </row>
+    <row r="140" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <f t="shared" si="5"/>
+        <v>138.53534482758621</v>
+      </c>
+      <c r="M140">
+        <v>138</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="4"/>
+        <v>0.53534482758621493</v>
+      </c>
+    </row>
+    <row r="141" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L141">
+        <f t="shared" si="5"/>
+        <v>139.49111349036403</v>
+      </c>
+      <c r="M141">
+        <v>139</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="4"/>
+        <v>0.49111349036402885</v>
+      </c>
+    </row>
+    <row r="142" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <f t="shared" si="5"/>
+        <v>140.44680851063831</v>
+      </c>
+      <c r="M142">
+        <v>140</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="4"/>
+        <v>0.44680851063830573</v>
+      </c>
+    </row>
+    <row r="143" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <f t="shared" si="5"/>
+        <v>141.40243128964059</v>
+      </c>
+      <c r="M143">
+        <v>141</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="4"/>
+        <v>0.40243128964058883</v>
+      </c>
+    </row>
+    <row r="144" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L144">
+        <f t="shared" si="5"/>
+        <v>142.35798319327731</v>
+      </c>
+      <c r="M144">
+        <v>142</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="4"/>
+        <v>0.3579831932773061</v>
+      </c>
+    </row>
+    <row r="145" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L145">
+        <f t="shared" si="5"/>
+        <v>143.31346555323591</v>
+      </c>
+      <c r="M145">
+        <v>143</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="4"/>
+        <v>0.31346555323591474</v>
+      </c>
+    </row>
+    <row r="146" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L146">
+        <f t="shared" si="5"/>
+        <v>144.26887966804981</v>
+      </c>
+      <c r="M146">
+        <v>144</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="4"/>
+        <v>0.26887966804980579</v>
+      </c>
+    </row>
+    <row r="147" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L147">
+        <f t="shared" si="5"/>
+        <v>145.2242268041237</v>
+      </c>
+      <c r="M147">
+        <v>145</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="4"/>
+        <v>0.22422680412370255</v>
+      </c>
+    </row>
+    <row r="148" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L148">
+        <f t="shared" si="5"/>
+        <v>146.17950819672129</v>
+      </c>
+      <c r="M148">
+        <v>146</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="4"/>
+        <v>0.17950819672128659</v>
+      </c>
+    </row>
+    <row r="149" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L149">
+        <f t="shared" si="5"/>
+        <v>147.1347250509165</v>
+      </c>
+      <c r="M149">
+        <v>147</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="4"/>
+        <v>0.13472505091650078</v>
+      </c>
+    </row>
+    <row r="150" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L150">
+        <f t="shared" si="5"/>
+        <v>148.08987854251012</v>
+      </c>
+      <c r="M150">
+        <v>148</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="4"/>
+        <v>8.9878542510120951E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L151">
+        <f t="shared" si="5"/>
+        <v>149.0449698189135</v>
+      </c>
+      <c r="M151">
+        <v>149</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="4"/>
+        <v>4.4969818913500603E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L152">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="M152">
+        <v>150</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L153">
+        <f t="shared" si="5"/>
+        <v>150.95497017892643</v>
+      </c>
+      <c r="M153">
+        <v>151</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="4"/>
+        <v>-4.5029821073569565E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L154">
+        <f t="shared" si="5"/>
+        <v>151.90988142292491</v>
+      </c>
+      <c r="M154">
+        <v>152</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="4"/>
+        <v>-9.0118577075088524E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L155">
+        <f t="shared" si="5"/>
+        <v>152.86473477406679</v>
+      </c>
+      <c r="M155">
+        <v>153</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="4"/>
+        <v>-0.13526522593321033</v>
+      </c>
+    </row>
+    <row r="156" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L156">
+        <f t="shared" si="5"/>
+        <v>153.81953125000001</v>
+      </c>
+      <c r="M156">
+        <v>154</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="4"/>
+        <v>-0.18046874999998863</v>
+      </c>
+    </row>
+    <row r="157" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L157">
+        <f t="shared" si="5"/>
+        <v>154.77427184466021</v>
+      </c>
+      <c r="M157">
+        <v>155</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="4"/>
+        <v>-0.22572815533979451</v>
+      </c>
+    </row>
+    <row r="158" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L158">
+        <f t="shared" si="5"/>
+        <v>155.72895752895752</v>
+      </c>
+      <c r="M158">
+        <v>156</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="4"/>
+        <v>-0.27104247104247747</v>
+      </c>
+    </row>
+    <row r="159" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L159">
+        <f t="shared" si="5"/>
+        <v>156.68358925143954</v>
+      </c>
+      <c r="M159">
+        <v>157</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="4"/>
+        <v>-0.31641074856045748</v>
+      </c>
+    </row>
+    <row r="160" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L160">
+        <f t="shared" si="5"/>
+        <v>157.6381679389313</v>
+      </c>
+      <c r="M160">
+        <v>158</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="4"/>
+        <v>-0.36183206106869648</v>
+      </c>
+    </row>
+    <row r="161" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L161">
+        <f t="shared" si="5"/>
+        <v>158.5926944971537</v>
+      </c>
+      <c r="M161">
+        <v>159</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="4"/>
+        <v>-0.40730550284629885</v>
+      </c>
+    </row>
+    <row r="162" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L162">
+        <f t="shared" si="5"/>
+        <v>159.54716981132074</v>
+      </c>
+      <c r="M162">
+        <v>160</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="4"/>
+        <v>-0.45283018867925762</v>
+      </c>
+    </row>
+    <row r="163" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L163">
+        <f t="shared" si="5"/>
+        <v>160.50159474671668</v>
+      </c>
+      <c r="M163">
+        <v>161</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="4"/>
+        <v>-0.49840525328332319</v>
+      </c>
+    </row>
+    <row r="164" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L164">
+        <f t="shared" si="5"/>
+        <v>161.45597014925374</v>
+      </c>
+      <c r="M164">
+        <v>162</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="4"/>
+        <v>-0.54402985074625576</v>
+      </c>
+    </row>
+    <row r="165" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L165">
+        <f t="shared" si="5"/>
+        <v>162.41029684601114</v>
+      </c>
+      <c r="M165">
+        <v>163</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="4"/>
+        <v>-0.58970315398886441</v>
+      </c>
+    </row>
+    <row r="166" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L166">
+        <f t="shared" si="5"/>
+        <v>163.36457564575647</v>
+      </c>
+      <c r="M166">
+        <v>164</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="4"/>
+        <v>-0.63542435424352561</v>
+      </c>
+    </row>
+    <row r="167" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L167">
+        <f t="shared" si="5"/>
+        <v>164.31880733944953</v>
+      </c>
+      <c r="M167">
+        <v>165</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="4"/>
+        <v>-0.68119266055046523</v>
+      </c>
+    </row>
+    <row r="168" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L168">
+        <f t="shared" si="5"/>
+        <v>165.2729927007299</v>
+      </c>
+      <c r="M168">
+        <v>166</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="4"/>
+        <v>-0.72700729927009888</v>
+      </c>
+    </row>
+    <row r="169" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L169">
+        <f t="shared" si="5"/>
+        <v>166.2271324863884</v>
+      </c>
+      <c r="M169">
+        <v>167</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="4"/>
+        <v>-0.772867513611601</v>
+      </c>
+    </row>
+    <row r="170" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L170">
+        <f t="shared" si="5"/>
+        <v>167.18122743682309</v>
+      </c>
+      <c r="M170">
+        <v>168</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="4"/>
+        <v>-0.81877256317690694</v>
+      </c>
+    </row>
+    <row r="171" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L171">
+        <f t="shared" si="5"/>
+        <v>168.13527827648116</v>
+      </c>
+      <c r="M171">
+        <v>169</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="4"/>
+        <v>-0.86472172351884069</v>
+      </c>
+    </row>
+    <row r="172" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L172">
+        <f t="shared" si="5"/>
+        <v>169.08928571428572</v>
+      </c>
+      <c r="M172">
+        <v>170</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="4"/>
+        <v>-0.91071428571427759</v>
+      </c>
+    </row>
+    <row r="173" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L173">
+        <f t="shared" si="5"/>
+        <v>170.04325044404973</v>
+      </c>
+      <c r="M173">
+        <v>171</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="4"/>
+        <v>-0.95674955595026745</v>
+      </c>
+    </row>
+    <row r="174" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L174">
+        <f t="shared" si="5"/>
+        <v>170.99717314487634</v>
+      </c>
+      <c r="M174">
+        <v>172</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="4"/>
+        <v>-1.0028268551236579</v>
+      </c>
+    </row>
+    <row r="175" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L175">
+        <f t="shared" si="5"/>
+        <v>171.95105448154658</v>
+      </c>
+      <c r="M175">
+        <v>173</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="4"/>
+        <v>-1.0489455184534222</v>
+      </c>
+    </row>
+    <row r="176" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L176">
+        <f t="shared" si="5"/>
+        <v>172.9048951048951</v>
+      </c>
+      <c r="M176">
+        <v>174</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="4"/>
+        <v>-1.0951048951048961</v>
+      </c>
+    </row>
+    <row r="177" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L177">
+        <f t="shared" si="5"/>
+        <v>173.85869565217391</v>
+      </c>
+      <c r="M177">
+        <v>175</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="4"/>
+        <v>-1.1413043478260931</v>
+      </c>
+    </row>
+    <row r="178" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L178">
+        <f t="shared" si="5"/>
+        <v>174.81245674740484</v>
+      </c>
+      <c r="M178">
+        <v>176</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="4"/>
+        <v>-1.1875432525951624</v>
+      </c>
+    </row>
+    <row r="179" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L179">
+        <f t="shared" si="5"/>
+        <v>175.76617900172118</v>
+      </c>
+      <c r="M179">
+        <v>177</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="4"/>
+        <v>-1.2338209982788158</v>
+      </c>
+    </row>
+    <row r="180" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L180">
+        <f t="shared" si="5"/>
+        <v>176.71986301369861</v>
+      </c>
+      <c r="M180">
+        <v>178</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="4"/>
+        <v>-1.2801369863013861</v>
+      </c>
+    </row>
+    <row r="181" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L181">
+        <f t="shared" si="5"/>
+        <v>177.67350936967634</v>
+      </c>
+      <c r="M181">
+        <v>179</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="4"/>
+        <v>-1.3264906303236614</v>
+      </c>
+    </row>
+    <row r="182" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L182">
+        <f t="shared" si="5"/>
+        <v>178.62711864406779</v>
+      </c>
+      <c r="M182">
+        <v>180</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="4"/>
+        <v>-1.3728813559322077</v>
+      </c>
+    </row>
+    <row r="183" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L183">
+        <f t="shared" si="5"/>
+        <v>179.58069139966273</v>
+      </c>
+      <c r="M183">
+        <v>181</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="4"/>
+        <v>-1.4193086003372741</v>
+      </c>
+    </row>
+    <row r="184" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L184">
+        <f t="shared" si="5"/>
+        <v>180.53422818791947</v>
+      </c>
+      <c r="M184">
+        <v>182</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="4"/>
+        <v>-1.4657718120805328</v>
+      </c>
+    </row>
+    <row r="185" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L185">
+        <f t="shared" si="5"/>
+        <v>181.48772954924874</v>
+      </c>
+      <c r="M185">
+        <v>183</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="4"/>
+        <v>-1.5122704507512594</v>
+      </c>
+    </row>
+    <row r="186" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L186">
+        <f t="shared" si="5"/>
+        <v>182.44119601328904</v>
+      </c>
+      <c r="M186">
+        <v>184</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="4"/>
+        <v>-1.5588039867109558</v>
+      </c>
+    </row>
+    <row r="187" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L187">
+        <f t="shared" si="5"/>
+        <v>183.39462809917356</v>
+      </c>
+      <c r="M187">
+        <v>185</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="4"/>
+        <v>-1.6053719008264409</v>
+      </c>
+    </row>
+    <row r="188" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L188">
+        <f t="shared" si="5"/>
+        <v>184.34802631578947</v>
+      </c>
+      <c r="M188">
+        <v>186</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="4"/>
+        <v>-1.6519736842105317</v>
+      </c>
+    </row>
+    <row r="189" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L189">
+        <f t="shared" si="5"/>
+        <v>185.30139116202946</v>
+      </c>
+      <c r="M189">
+        <v>187</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="4"/>
+        <v>-1.6986088379705393</v>
+      </c>
+    </row>
+    <row r="190" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L190">
+        <f t="shared" si="5"/>
+        <v>186.25472312703582</v>
+      </c>
+      <c r="M190">
+        <v>188</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="4"/>
+        <v>-1.7452768729641832</v>
+      </c>
+    </row>
+    <row r="191" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L191">
+        <f t="shared" si="5"/>
+        <v>187.20802269043762</v>
+      </c>
+      <c r="M191">
+        <v>189</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="4"/>
+        <v>-1.7919773095623839</v>
+      </c>
+    </row>
+    <row r="192" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L192">
+        <f t="shared" si="5"/>
+        <v>188.16129032258064</v>
+      </c>
+      <c r="M192">
+        <v>190</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="4"/>
+        <v>-1.8387096774193594</v>
+      </c>
+    </row>
+    <row r="193" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L193">
+        <f t="shared" si="5"/>
+        <v>189.1145264847512</v>
+      </c>
+      <c r="M193">
+        <v>191</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="4"/>
+        <v>-1.8854735152488047</v>
+      </c>
+    </row>
+    <row r="194" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L194">
+        <f t="shared" si="5"/>
+        <v>190.06773162939297</v>
+      </c>
+      <c r="M194">
+        <v>192</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="4"/>
+        <v>-1.9322683706070336</v>
+      </c>
+    </row>
+    <row r="195" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L195">
+        <f t="shared" si="5"/>
+        <v>191.02090620031797</v>
+      </c>
+      <c r="M195">
+        <v>193</v>
+      </c>
+      <c r="N195">
+        <f t="shared" ref="N195:N229" si="6">L195-M195</f>
+        <v>-1.9790937996820333</v>
+      </c>
+    </row>
+    <row r="196" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L196">
+        <f t="shared" si="5"/>
+        <v>191.9740506329114</v>
+      </c>
+      <c r="M196">
+        <v>194</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="6"/>
+        <v>-2.0259493670886002</v>
+      </c>
+    </row>
+    <row r="197" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L197">
+        <f t="shared" ref="L197:L229" si="7">M197+($B$12*M197)*(1/(1+($B$13*M197)+($B$14*M197)+($B$15)))*($B$16/($B$16+$B$17))*($B$18/($B$18+$B$19))-($B$20*M197)</f>
+        <v>192.9271653543307</v>
+      </c>
+      <c r="M197">
+        <v>195</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="6"/>
+        <v>-2.0728346456693032</v>
+      </c>
+    </row>
+    <row r="198" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L198">
+        <f t="shared" si="7"/>
+        <v>193.88025078369904</v>
+      </c>
+      <c r="M198">
+        <v>196</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="6"/>
+        <v>-2.1197492163009599</v>
+      </c>
+    </row>
+    <row r="199" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L199">
+        <f t="shared" si="7"/>
+        <v>194.83330733229329</v>
+      </c>
+      <c r="M199">
+        <v>197</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="6"/>
+        <v>-2.1666926677067124</v>
+      </c>
+    </row>
+    <row r="200" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L200">
+        <f t="shared" si="7"/>
+        <v>195.7863354037267</v>
+      </c>
+      <c r="M200">
+        <v>198</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="6"/>
+        <v>-2.2136645962733041</v>
+      </c>
+    </row>
+    <row r="201" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L201">
+        <f t="shared" si="7"/>
+        <v>196.73933539412675</v>
+      </c>
+      <c r="M201">
+        <v>199</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="6"/>
+        <v>-2.2606646058732451</v>
+      </c>
+    </row>
+    <row r="202" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L202">
+        <f t="shared" si="7"/>
+        <v>197.69230769230768</v>
+      </c>
+      <c r="M202">
+        <v>200</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="6"/>
+        <v>-2.3076923076923208</v>
+      </c>
+    </row>
+    <row r="203" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L203">
+        <f t="shared" si="7"/>
+        <v>198.64525267993872</v>
+      </c>
+      <c r="M203">
+        <v>201</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="6"/>
+        <v>-2.3547473200612785</v>
+      </c>
+    </row>
+    <row r="204" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L204">
+        <f t="shared" si="7"/>
+        <v>199.59817073170731</v>
+      </c>
+      <c r="M204">
+        <v>202</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="6"/>
+        <v>-2.4018292682926869</v>
+      </c>
+    </row>
+    <row r="205" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L205">
+        <f t="shared" si="7"/>
+        <v>200.551062215478</v>
+      </c>
+      <c r="M205">
+        <v>203</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="6"/>
+        <v>-2.4489377845220019</v>
+      </c>
+    </row>
+    <row r="206" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L206">
+        <f t="shared" si="7"/>
+        <v>201.50392749244713</v>
+      </c>
+      <c r="M206">
+        <v>204</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="6"/>
+        <v>-2.4960725075528671</v>
+      </c>
+    </row>
+    <row r="207" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L207">
+        <f t="shared" si="7"/>
+        <v>202.45676691729324</v>
+      </c>
+      <c r="M207">
+        <v>205</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="6"/>
+        <v>-2.5432330827067631</v>
+      </c>
+    </row>
+    <row r="208" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L208">
+        <f t="shared" si="7"/>
+        <v>203.40958083832334</v>
+      </c>
+      <c r="M208">
+        <v>206</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="6"/>
+        <v>-2.5904191616766639</v>
+      </c>
+    </row>
+    <row r="209" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L209">
+        <f t="shared" si="7"/>
+        <v>204.3623695976155</v>
+      </c>
+      <c r="M209">
+        <v>207</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="6"/>
+        <v>-2.6376304023845023</v>
+      </c>
+    </row>
+    <row r="210" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L210">
+        <f t="shared" si="7"/>
+        <v>205.31513353115727</v>
+      </c>
+      <c r="M210">
+        <v>208</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="6"/>
+        <v>-2.6848664688427277</v>
+      </c>
+    </row>
+    <row r="211" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L211">
+        <f t="shared" si="7"/>
+        <v>206.26787296898081</v>
+      </c>
+      <c r="M211">
+        <v>209</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="6"/>
+        <v>-2.7321270310191892</v>
+      </c>
+    </row>
+    <row r="212" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L212">
+        <f t="shared" si="7"/>
+        <v>207.22058823529412</v>
+      </c>
+      <c r="M212">
+        <v>210</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="6"/>
+        <v>-2.779411764705884</v>
+      </c>
+    </row>
+    <row r="213" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L213">
+        <f t="shared" si="7"/>
+        <v>208.17327964860905</v>
+      </c>
+      <c r="M213">
+        <v>211</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="6"/>
+        <v>-2.8267203513909465</v>
+      </c>
+    </row>
+    <row r="214" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L214">
+        <f t="shared" si="7"/>
+        <v>209.1259475218659</v>
+      </c>
+      <c r="M214">
+        <v>212</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="6"/>
+        <v>-2.8740524781341037</v>
+      </c>
+    </row>
+    <row r="215" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L215">
+        <f t="shared" si="7"/>
+        <v>210.07859216255443</v>
+      </c>
+      <c r="M215">
+        <v>213</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="6"/>
+        <v>-2.921407837445571</v>
+      </c>
+    </row>
+    <row r="216" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L216">
+        <f t="shared" si="7"/>
+        <v>211.03121387283238</v>
+      </c>
+      <c r="M216">
+        <v>214</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="6"/>
+        <v>-2.9687861271676184</v>
+      </c>
+    </row>
+    <row r="217" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L217">
+        <f t="shared" si="7"/>
+        <v>211.98381294964028</v>
+      </c>
+      <c r="M217">
+        <v>215</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="6"/>
+        <v>-3.0161870503597186</v>
+      </c>
+    </row>
+    <row r="218" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L218">
+        <f t="shared" si="7"/>
+        <v>212.93638968481375</v>
+      </c>
+      <c r="M218">
+        <v>216</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="6"/>
+        <v>-3.0636103151862528</v>
+      </c>
+    </row>
+    <row r="219" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L219">
+        <f t="shared" si="7"/>
+        <v>213.8889443651926</v>
+      </c>
+      <c r="M219">
+        <v>217</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="6"/>
+        <v>-3.1110556348073999</v>
+      </c>
+    </row>
+    <row r="220" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L220">
+        <f t="shared" si="7"/>
+        <v>214.84147727272727</v>
+      </c>
+      <c r="M220">
+        <v>218</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="6"/>
+        <v>-3.1585227272727252</v>
+      </c>
+    </row>
+    <row r="221" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L221">
+        <f t="shared" si="7"/>
+        <v>215.79398868458276</v>
+      </c>
+      <c r="M221">
+        <v>219</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="6"/>
+        <v>-3.2060113154172427</v>
+      </c>
+    </row>
+    <row r="222" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L222">
+        <f t="shared" si="7"/>
+        <v>216.74647887323943</v>
+      </c>
+      <c r="M222">
+        <v>220</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="6"/>
+        <v>-3.2535211267605746</v>
+      </c>
+    </row>
+    <row r="223" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L223">
+        <f t="shared" si="7"/>
+        <v>217.69894810659184</v>
+      </c>
+      <c r="M223">
+        <v>221</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="6"/>
+        <v>-3.3010518934081574</v>
+      </c>
+    </row>
+    <row r="224" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L224">
+        <f t="shared" si="7"/>
+        <v>218.65139664804471</v>
+      </c>
+      <c r="M224">
+        <v>222</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="6"/>
+        <v>-3.3486033519552905</v>
+      </c>
+    </row>
+    <row r="225" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L225">
+        <f t="shared" si="7"/>
+        <v>219.6038247566064</v>
+      </c>
+      <c r="M225">
+        <v>223</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="6"/>
+        <v>-3.3961752433935999</v>
+      </c>
+    </row>
+    <row r="226" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L226">
+        <f t="shared" si="7"/>
+        <v>220.55623268698062</v>
+      </c>
+      <c r="M226">
+        <v>224</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="6"/>
+        <v>-3.4437673130193787</v>
+      </c>
+    </row>
+    <row r="227" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L227">
+        <f t="shared" si="7"/>
+        <v>221.50862068965517</v>
+      </c>
+      <c r="M227">
+        <v>225</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="6"/>
+        <v>-3.4913793103448256</v>
+      </c>
+    </row>
+    <row r="228" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L228">
+        <f t="shared" si="7"/>
+        <v>222.46098901098901</v>
+      </c>
+      <c r="M228">
+        <v>226</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="6"/>
+        <v>-3.5390109890109898</v>
+      </c>
+    </row>
+    <row r="229" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L229">
+        <f t="shared" si="7"/>
+        <v>223.41333789329687</v>
+      </c>
+      <c r="M229">
+        <v>227</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="6"/>
+        <v>-3.5866621067031303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/function descriptions.xlsx
+++ b/function descriptions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="7635" windowHeight="7560"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="7635" windowHeight="7560" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MOVE_with_raster()" sheetId="7" r:id="rId1"/>
@@ -1278,11 +1278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190827328"/>
-        <c:axId val="190827904"/>
+        <c:axId val="106899712"/>
+        <c:axId val="106900288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190827328"/>
+        <c:axId val="106899712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,12 +1329,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190827904"/>
+        <c:crossAx val="106900288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190827904"/>
+        <c:axId val="106900288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,7 +1373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190827328"/>
+        <c:crossAx val="106899712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2243,11 +2243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188499648"/>
-        <c:axId val="188500224"/>
+        <c:axId val="106903168"/>
+        <c:axId val="106903744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188499648"/>
+        <c:axId val="106903168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,12 +2286,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188500224"/>
+        <c:crossAx val="106903744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188500224"/>
+        <c:axId val="106903744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,7 +2330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188499648"/>
+        <c:crossAx val="106903168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4682,11 +4682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188501952"/>
-        <c:axId val="188502528"/>
+        <c:axId val="110460928"/>
+        <c:axId val="110461504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188501952"/>
+        <c:axId val="110460928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -4697,12 +4697,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188502528"/>
+        <c:crossAx val="110461504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188502528"/>
+        <c:axId val="110461504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,7 +4712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188501952"/>
+        <c:crossAx val="110460928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7064,11 +7064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188504256"/>
-        <c:axId val="188504832"/>
+        <c:axId val="110463232"/>
+        <c:axId val="110463808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188504256"/>
+        <c:axId val="110463232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -7079,12 +7079,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188504832"/>
+        <c:crossAx val="110463808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188504832"/>
+        <c:axId val="110463808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7094,7 +7094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188504256"/>
+        <c:crossAx val="110463232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8522,11 +8522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189473344"/>
-        <c:axId val="189473920"/>
+        <c:axId val="110465536"/>
+        <c:axId val="110466112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189473344"/>
+        <c:axId val="110465536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8556,12 +8556,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189473920"/>
+        <c:crossAx val="110466112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189473920"/>
+        <c:axId val="110466112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -8591,7 +8591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189473344"/>
+        <c:crossAx val="110465536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8657,661 +8657,661 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.445049504950495</c:v>
+                  <c:v>0.99995499549954991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.89009900990099</c:v>
+                  <c:v>1.9999099909990998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3351485148514843</c:v>
+                  <c:v>2.99986498649865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.78019801980198</c:v>
+                  <c:v>3.9998199819981997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2252475247524757</c:v>
+                  <c:v>4.9997749774977498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6702970297029687</c:v>
+                  <c:v>5.9997299729972999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.115346534653465</c:v>
+                  <c:v>6.9996849684968501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.56039603960396</c:v>
+                  <c:v>7.9996399639963993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.005445544554457</c:v>
+                  <c:v>8.9995949594959495</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.450495049504951</c:v>
+                  <c:v>9.9995499549954996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.895544554455444</c:v>
+                  <c:v>10.999504950495048</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.340594059405937</c:v>
+                  <c:v>11.9994599459946</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.785643564356437</c:v>
+                  <c:v>12.999414941494148</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.23069306930693</c:v>
+                  <c:v>13.9993699369937</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.675742574257427</c:v>
+                  <c:v>14.999324932493248</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.12079207920792</c:v>
+                  <c:v>15.999279927992799</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.565841584158413</c:v>
+                  <c:v>16.999234923492349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.010891089108913</c:v>
+                  <c:v>17.999189918991899</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.455940594059406</c:v>
+                  <c:v>18.999144914491449</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.900990099009903</c:v>
+                  <c:v>19.999099909990999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.346039603960396</c:v>
+                  <c:v>20.999054905490549</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.791089108910889</c:v>
+                  <c:v>21.999009900990096</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33.236138613861385</c:v>
+                  <c:v>22.99896489648965</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34.681188118811875</c:v>
+                  <c:v>23.9989198919892</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36.126237623762378</c:v>
+                  <c:v>24.99887488748875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37.571287128712875</c:v>
+                  <c:v>25.998829882988296</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39.016336633663364</c:v>
+                  <c:v>26.998784878487847</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.461386138613861</c:v>
+                  <c:v>27.9987398739874</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41.90643564356435</c:v>
+                  <c:v>28.99869486948695</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43.351485148514854</c:v>
+                  <c:v>29.998649864986497</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.796534653465351</c:v>
+                  <c:v>30.998604860486051</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46.24158415841584</c:v>
+                  <c:v>31.998559855985597</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>47.686633663366337</c:v>
+                  <c:v>32.998514851485147</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49.131683168316826</c:v>
+                  <c:v>33.998469846984698</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50.57673267326733</c:v>
+                  <c:v>34.998424842484248</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>52.021782178217826</c:v>
+                  <c:v>35.998379837983798</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>53.466831683168316</c:v>
+                  <c:v>36.998334833483348</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>54.911881188118812</c:v>
+                  <c:v>37.998289828982898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>56.356930693069302</c:v>
+                  <c:v>38.998244824482448</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57.801980198019805</c:v>
+                  <c:v>39.998199819981998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>59.247029702970295</c:v>
+                  <c:v>40.998154815481548</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>60.692079207920791</c:v>
+                  <c:v>41.998109810981099</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62.137128712871295</c:v>
+                  <c:v>42.998064806480649</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63.582178217821777</c:v>
+                  <c:v>43.998019801980192</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>65.027227722772281</c:v>
+                  <c:v>44.997974797479749</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>66.47227722772277</c:v>
+                  <c:v>45.997929792979299</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>67.917326732673274</c:v>
+                  <c:v>46.997884788478849</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>69.362376237623749</c:v>
+                  <c:v>47.997839783978399</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>70.807425742574253</c:v>
+                  <c:v>48.997794779477942</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>72.252475247524757</c:v>
+                  <c:v>49.9977497749775</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>73.697524752475246</c:v>
+                  <c:v>50.99770477047705</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>75.14257425742575</c:v>
+                  <c:v>51.997659765976593</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>76.587623762376239</c:v>
+                  <c:v>52.99761476147615</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>78.032673267326729</c:v>
+                  <c:v>53.997569756975693</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>79.477722772277232</c:v>
+                  <c:v>54.99752475247525</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>80.922772277227722</c:v>
+                  <c:v>55.997479747974801</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>82.367821782178225</c:v>
+                  <c:v>56.997434743474344</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>83.812871287128701</c:v>
+                  <c:v>57.997389738973901</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>85.257920792079204</c:v>
+                  <c:v>58.997344734473444</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>86.702970297029708</c:v>
+                  <c:v>59.997299729972994</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>88.148019801980197</c:v>
+                  <c:v>60.997254725472544</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>89.593069306930701</c:v>
+                  <c:v>61.997209720972101</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>91.038118811881191</c:v>
+                  <c:v>62.997164716471652</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>92.48316831683168</c:v>
+                  <c:v>63.997119711971195</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>93.928217821782169</c:v>
+                  <c:v>64.997074707470745</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>95.373267326732673</c:v>
+                  <c:v>65.997029702970295</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>96.818316831683177</c:v>
+                  <c:v>66.996984698469859</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>98.263366336633652</c:v>
+                  <c:v>67.996939693969395</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>99.708415841584156</c:v>
+                  <c:v>68.996894689468945</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>101.15346534653466</c:v>
+                  <c:v>69.996849684968495</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>102.59851485148515</c:v>
+                  <c:v>70.996804680468045</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>104.04356435643565</c:v>
+                  <c:v>71.996759675967596</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>105.48861386138614</c:v>
+                  <c:v>72.996714671467146</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>106.93366336633663</c:v>
+                  <c:v>73.996669666966696</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>108.37871287128712</c:v>
+                  <c:v>74.996624662466246</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>109.82376237623762</c:v>
+                  <c:v>75.996579657965796</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>111.26881188118813</c:v>
+                  <c:v>76.996534653465346</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>112.7138613861386</c:v>
+                  <c:v>77.996489648964896</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>114.15891089108911</c:v>
+                  <c:v>78.996444644464447</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>115.60396039603961</c:v>
+                  <c:v>79.996399639963997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>117.0490099009901</c:v>
+                  <c:v>80.996354635463547</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>118.49405940594059</c:v>
+                  <c:v>81.996309630963097</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>119.93910891089109</c:v>
+                  <c:v>82.996264626462647</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>121.38415841584158</c:v>
+                  <c:v>83.996219621962197</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>122.82920792079207</c:v>
+                  <c:v>84.996174617461747</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>124.27425742574259</c:v>
+                  <c:v>85.996129612961298</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>125.71930693069308</c:v>
+                  <c:v>86.996084608460848</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>127.16435643564355</c:v>
+                  <c:v>87.996039603960384</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>128.60940594059406</c:v>
+                  <c:v>88.995994599459948</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>130.05445544554456</c:v>
+                  <c:v>89.995949594959498</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>131.49950495049504</c:v>
+                  <c:v>90.995904590459048</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>132.94455445544554</c:v>
+                  <c:v>91.995859585958598</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>134.38960396039604</c:v>
+                  <c:v>92.995814581458134</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>135.83465346534655</c:v>
+                  <c:v>93.995769576957699</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>137.27970297029702</c:v>
+                  <c:v>94.995724572457249</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>138.7247524752475</c:v>
+                  <c:v>95.995679567956799</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>140.16980198019803</c:v>
+                  <c:v>96.995634563456349</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>141.61485148514851</c:v>
+                  <c:v>97.995589558955885</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>143.05990099009904</c:v>
+                  <c:v>98.995544554455435</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>144.50495049504951</c:v>
+                  <c:v>99.995499549954999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>145.94999999999999</c:v>
+                  <c:v>100.99545454545455</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>147.39504950495049</c:v>
+                  <c:v>101.9954095409541</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>148.84009900990097</c:v>
+                  <c:v>102.99536453645364</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>150.2851485148515</c:v>
+                  <c:v>103.99531953195319</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>151.73019801980197</c:v>
+                  <c:v>104.99527452745275</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>153.17524752475248</c:v>
+                  <c:v>105.9952295229523</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>154.62029702970298</c:v>
+                  <c:v>106.99518451845185</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>156.06534653465346</c:v>
+                  <c:v>107.99513951395139</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>157.51039603960396</c:v>
+                  <c:v>108.99509450945094</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>158.95544554455446</c:v>
+                  <c:v>109.9950495049505</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>160.40049504950494</c:v>
+                  <c:v>110.99500450045005</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>161.84554455445544</c:v>
+                  <c:v>111.9949594959496</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>163.29059405940595</c:v>
+                  <c:v>112.99491449144914</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>164.73564356435645</c:v>
+                  <c:v>113.99486948694869</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>166.18069306930693</c:v>
+                  <c:v>114.99482448244825</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>167.6257425742574</c:v>
+                  <c:v>115.9947794779478</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>169.07079207920793</c:v>
+                  <c:v>116.99473447344735</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>170.51584158415841</c:v>
+                  <c:v>117.99468946894689</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>171.96089108910891</c:v>
+                  <c:v>118.99464446444644</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>173.40594059405942</c:v>
+                  <c:v>119.99459945994599</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>174.85099009900989</c:v>
+                  <c:v>120.99455445544555</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>176.29603960396039</c:v>
+                  <c:v>121.99450945094509</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>177.74108910891087</c:v>
+                  <c:v>122.99446444644465</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>179.1861386138614</c:v>
+                  <c:v>123.9944194419442</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>180.63118811881188</c:v>
+                  <c:v>124.99437443744375</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>182.07623762376238</c:v>
+                  <c:v>125.9943294329433</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>183.52128712871288</c:v>
+                  <c:v>126.99428442844285</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>184.96633663366336</c:v>
+                  <c:v>127.99423942394239</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>186.41138613861386</c:v>
+                  <c:v>128.99419441944195</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>187.85643564356434</c:v>
+                  <c:v>129.99414941494149</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>189.30148514851484</c:v>
+                  <c:v>130.99410441044103</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>190.74653465346535</c:v>
+                  <c:v>131.99405940594059</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>192.19158415841585</c:v>
+                  <c:v>132.99401440144013</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>193.63663366336635</c:v>
+                  <c:v>133.99396939693972</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>195.08168316831683</c:v>
+                  <c:v>134.99392439243925</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>196.5267326732673</c:v>
+                  <c:v>135.99387938793879</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>197.97178217821781</c:v>
+                  <c:v>136.99383438343835</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>199.41683168316831</c:v>
+                  <c:v>137.99378937893789</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>200.86188118811884</c:v>
+                  <c:v>138.99374437443745</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>202.30693069306932</c:v>
+                  <c:v>139.99369936993699</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>203.75198019801979</c:v>
+                  <c:v>140.99365436543653</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>205.1970297029703</c:v>
+                  <c:v>141.99360936093609</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>206.64207920792077</c:v>
+                  <c:v>142.99356435643563</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>208.0871287128713</c:v>
+                  <c:v>143.99351935193519</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>209.53217821782178</c:v>
+                  <c:v>144.99347434743476</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>210.97722772277228</c:v>
+                  <c:v>145.99342934293429</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>212.42227722772279</c:v>
+                  <c:v>146.99338433843386</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>213.86732673267326</c:v>
+                  <c:v>147.99333933393339</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>215.31237623762377</c:v>
+                  <c:v>148.99329432943296</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>216.75742574257424</c:v>
+                  <c:v>149.99324932493249</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>218.20247524752475</c:v>
+                  <c:v>150.99320432043203</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>219.64752475247525</c:v>
+                  <c:v>151.99315931593159</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>221.09257425742575</c:v>
+                  <c:v>152.99311431143113</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>222.53762376237626</c:v>
+                  <c:v>153.99306930693069</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>223.98267326732673</c:v>
+                  <c:v>154.99302430243023</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>225.42772277227721</c:v>
+                  <c:v>155.99297929792979</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>226.87277227722771</c:v>
+                  <c:v>156.99293429342936</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>228.31782178217821</c:v>
+                  <c:v>157.99288928892889</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>229.76287128712872</c:v>
+                  <c:v>158.99284428442846</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>231.20792079207922</c:v>
+                  <c:v>159.99279927992799</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>232.6529702970297</c:v>
+                  <c:v>160.99275427542753</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>234.0980198019802</c:v>
+                  <c:v>161.99270927092709</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>235.54306930693068</c:v>
+                  <c:v>162.99266426642663</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>236.98811881188118</c:v>
+                  <c:v>163.99261926192619</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>238.43316831683168</c:v>
+                  <c:v>164.99257425742573</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>239.87821782178219</c:v>
+                  <c:v>165.99252925292529</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>241.32326732673269</c:v>
+                  <c:v>166.99248424842486</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>242.76831683168317</c:v>
+                  <c:v>167.99243924392439</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>244.21336633663367</c:v>
+                  <c:v>168.99239423942396</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>245.65841584158414</c:v>
+                  <c:v>169.99234923492349</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>247.10346534653465</c:v>
+                  <c:v>170.99230423042303</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>248.54851485148518</c:v>
+                  <c:v>171.9922592259226</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>249.99356435643566</c:v>
+                  <c:v>172.99221422142213</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>251.43861386138616</c:v>
+                  <c:v>173.9921692169217</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>252.88366336633663</c:v>
+                  <c:v>174.99212421242123</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>254.32871287128711</c:v>
+                  <c:v>175.99207920792077</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>255.77376237623761</c:v>
+                  <c:v>176.99203420342036</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>257.21881188118812</c:v>
+                  <c:v>177.9919891989199</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>258.66386138613865</c:v>
+                  <c:v>178.99194419441946</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>260.10891089108912</c:v>
+                  <c:v>179.991899189919</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>261.5539603960396</c:v>
+                  <c:v>180.99185418541853</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>262.99900990099007</c:v>
+                  <c:v>181.9918091809181</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>264.44405940594061</c:v>
+                  <c:v>182.99176417641763</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>265.88910891089108</c:v>
+                  <c:v>183.9917191719172</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>267.33415841584156</c:v>
+                  <c:v>184.99167416741673</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>268.77920792079209</c:v>
+                  <c:v>185.99162916291627</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>270.22425742574256</c:v>
+                  <c:v>186.99158415841586</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>271.6693069306931</c:v>
+                  <c:v>187.9915391539154</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>273.11435643564357</c:v>
+                  <c:v>188.99149414941496</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>274.55940594059405</c:v>
+                  <c:v>189.9914491449145</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>276.00445544554452</c:v>
+                  <c:v>190.99140414041403</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>277.449504950495</c:v>
+                  <c:v>191.9913591359136</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>278.89455445544559</c:v>
+                  <c:v>192.99131413141313</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>280.33960396039606</c:v>
+                  <c:v>193.9912691269127</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>281.78465346534654</c:v>
+                  <c:v>194.99122412241223</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>283.22970297029701</c:v>
+                  <c:v>195.99117911791177</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>284.67475247524749</c:v>
+                  <c:v>196.99113411341133</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>286.11980198019808</c:v>
+                  <c:v>197.99108910891087</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>287.56485148514849</c:v>
+                  <c:v>198.99104410441046</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>289.00990099009903</c:v>
+                  <c:v>199.99099909991</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>290.4549504950495</c:v>
+                  <c:v>200.99095409540953</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>291.89999999999998</c:v>
+                  <c:v>201.9909090909091</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>293.34504950495051</c:v>
+                  <c:v>202.99086408640864</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>294.79009900990098</c:v>
+                  <c:v>203.9908190819082</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>296.23514851485152</c:v>
+                  <c:v>204.99077407740774</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>297.68019801980194</c:v>
+                  <c:v>205.99072907290727</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>299.12524752475247</c:v>
+                  <c:v>206.99068406840684</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>300.570297029703</c:v>
+                  <c:v>207.99063906390637</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>302.01534653465347</c:v>
+                  <c:v>208.99059405940596</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>303.46039603960395</c:v>
+                  <c:v>209.9905490549055</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>304.90544554455442</c:v>
+                  <c:v>210.99050405040504</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>306.35049504950496</c:v>
+                  <c:v>211.9904590459046</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>307.79554455445543</c:v>
+                  <c:v>212.99041404140414</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>309.24059405940596</c:v>
+                  <c:v>213.9903690369037</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>310.68564356435644</c:v>
+                  <c:v>214.99032403240324</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>312.13069306930691</c:v>
+                  <c:v>215.99027902790277</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>313.57574257425739</c:v>
+                  <c:v>216.99023402340234</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>315.02079207920792</c:v>
+                  <c:v>217.99018901890187</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>316.46584158415845</c:v>
+                  <c:v>218.99014401440144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9326,685 +9326,685 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.445049504950495</c:v>
+                  <c:v>-4.5004500450085416E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89009900990099</c:v>
+                  <c:v>-9.0009000900170832E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3351485148514843</c:v>
+                  <c:v>-1.350135013500342E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.78019801980198</c:v>
+                  <c:v>-1.8001800180034166E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2252475247524757</c:v>
+                  <c:v>-2.2502250225020504E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6702970297029687</c:v>
+                  <c:v>-2.7002700270006841E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1153465346534652</c:v>
+                  <c:v>-3.1503150314993178E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.56039603960396</c:v>
+                  <c:v>-3.6003600360068333E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0054455445544566</c:v>
+                  <c:v>-4.050405040505467E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4504950495049513</c:v>
+                  <c:v>-4.5004500450041007E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8955445544554443</c:v>
+                  <c:v>-4.950495049520498E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3405940594059373</c:v>
+                  <c:v>-5.4005400540013682E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7856435643564375</c:v>
+                  <c:v>-5.8505850585177654E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.2306930693069305</c:v>
+                  <c:v>-6.3006300629986356E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.675742574257427</c:v>
+                  <c:v>-6.7506750675150329E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.12079207920792</c:v>
+                  <c:v>-7.2007200720136666E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.565841584158413</c:v>
+                  <c:v>-7.6507650765123003E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0108910891089131</c:v>
+                  <c:v>-8.100810081010934E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.4559405940594061</c:v>
+                  <c:v>-8.5508550855095677E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.9009900990099027</c:v>
+                  <c:v>-9.0009000900082015E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.3460396039603957</c:v>
+                  <c:v>-9.4509450945068352E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7910891089108887</c:v>
+                  <c:v>-9.900990099040996E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.236138613861385</c:v>
+                  <c:v>-1.0351035103504103E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.681188118811875</c:v>
+                  <c:v>-1.0801080108002736E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.126237623762378</c:v>
+                  <c:v>-1.125112511250137E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.571287128712875</c:v>
+                  <c:v>-1.1701170117035531E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.016336633663364</c:v>
+                  <c:v>-1.2151215121534165E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.461386138613861</c:v>
+                  <c:v>-1.2601260125997271E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.90643564356435</c:v>
+                  <c:v>-1.3051305130495905E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.351485148514854</c:v>
+                  <c:v>-1.3501350135030066E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.796534653465351</c:v>
+                  <c:v>-1.3951395139493172E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.24158415841584</c:v>
+                  <c:v>-1.4401440144027333E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.686633663366337</c:v>
+                  <c:v>-1.4851485148525967E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15.131683168316826</c:v>
+                  <c:v>-1.5301530153024601E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.57673267326733</c:v>
+                  <c:v>-1.5751575157523234E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16.021782178217826</c:v>
+                  <c:v>-1.6201620162021868E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.466831683168316</c:v>
+                  <c:v>-1.6651665166520502E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16.911881188118812</c:v>
+                  <c:v>-1.7101710171019135E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17.356930693069302</c:v>
+                  <c:v>-1.7551755175517769E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17.801980198019805</c:v>
+                  <c:v>-1.8001800180016403E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18.247029702970295</c:v>
+                  <c:v>-1.8451845184515037E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18.692079207920791</c:v>
+                  <c:v>-1.890189018901367E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19.137128712871295</c:v>
+                  <c:v>-1.9351935193512304E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>19.582178217821777</c:v>
+                  <c:v>-1.9801980198081992E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20.027227722772281</c:v>
+                  <c:v>-2.0252025202509571E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.47227722772277</c:v>
+                  <c:v>-2.0702070207008205E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20.917326732673274</c:v>
+                  <c:v>-2.1152115211506839E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.362376237623749</c:v>
+                  <c:v>-2.1602160216005473E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21.807425742574253</c:v>
+                  <c:v>-2.2052205220575161E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>22.252475247524757</c:v>
+                  <c:v>-2.250225022500274E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22.697524752475246</c:v>
+                  <c:v>-2.2952295229501374E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>23.14257425742575</c:v>
+                  <c:v>-2.3402340234071062E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>23.587623762376239</c:v>
+                  <c:v>-2.3852385238498641E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>24.032673267326729</c:v>
+                  <c:v>-2.4302430243068329E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>24.477722772277232</c:v>
+                  <c:v>-2.4752475247495909E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>24.922772277227722</c:v>
+                  <c:v>-2.5202520251994542E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25.367821782178225</c:v>
+                  <c:v>-2.565256525656423E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25.812871287128701</c:v>
+                  <c:v>-2.610261026099181E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26.257920792079204</c:v>
+                  <c:v>-2.6552655265561498E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>26.702970297029708</c:v>
+                  <c:v>-2.7002700270060132E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>27.148019801980197</c:v>
+                  <c:v>-2.7452745274558765E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>27.593069306930701</c:v>
+                  <c:v>-2.7902790278986345E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28.038118811881191</c:v>
+                  <c:v>-2.8352835283484978E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.48316831683168</c:v>
+                  <c:v>-2.8802880288054666E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>28.928217821782169</c:v>
+                  <c:v>-2.92529252925533E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>29.373267326732673</c:v>
+                  <c:v>-2.9702970297051934E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>29.818316831683177</c:v>
+                  <c:v>-3.0153015301408459E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>30.263366336633652</c:v>
+                  <c:v>-3.0603060306049201E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>30.708415841584156</c:v>
+                  <c:v>-3.1053105310547835E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>31.153465346534659</c:v>
+                  <c:v>-3.1503150315046469E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>31.598514851485149</c:v>
+                  <c:v>-3.1953195319545102E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>32.043564356435652</c:v>
+                  <c:v>-3.2403240324043736E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>32.488613861386142</c:v>
+                  <c:v>-3.285328532854237E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>32.933663366336631</c:v>
+                  <c:v>-3.3303330333041004E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>33.378712871287121</c:v>
+                  <c:v>-3.3753375337539637E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>33.823762376237624</c:v>
+                  <c:v>-3.4203420342038271E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>34.268811881188128</c:v>
+                  <c:v>-3.4653465346536905E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>34.713861386138603</c:v>
+                  <c:v>-3.5103510351035538E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>35.158910891089107</c:v>
+                  <c:v>-3.5553555355534172E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>35.603960396039611</c:v>
+                  <c:v>-3.6003600360032806E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>36.0490099009901</c:v>
+                  <c:v>-3.645364536453144E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>36.49405940594059</c:v>
+                  <c:v>-3.6903690369030073E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>36.939108910891093</c:v>
+                  <c:v>-3.7353735373528707E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>37.384158415841583</c:v>
+                  <c:v>-3.7803780378027341E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>37.829207920792072</c:v>
+                  <c:v>-3.8253825382525974E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>38.27425742574259</c:v>
+                  <c:v>-3.8703870387024608E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>38.719306930693079</c:v>
+                  <c:v>-3.9153915391523242E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>39.164356435643555</c:v>
+                  <c:v>-3.9603960396163984E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>39.609405940594058</c:v>
+                  <c:v>-4.0054005400520509E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>40.054455445544562</c:v>
+                  <c:v>-4.0504050405019143E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>40.499504950495037</c:v>
+                  <c:v>-4.0954095409517777E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>40.944554455445541</c:v>
+                  <c:v>-4.140414041401641E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>41.389603960396045</c:v>
+                  <c:v>-4.1854185418657153E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>41.834653465346548</c:v>
+                  <c:v>-4.2304230423013678E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42.279702970297024</c:v>
+                  <c:v>-4.2754275427512312E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>42.724752475247499</c:v>
+                  <c:v>-4.3204320432010945E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43.169801980198031</c:v>
+                  <c:v>-4.3654365436509579E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43.614851485148506</c:v>
+                  <c:v>-4.4104410441150321E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>44.059900990099038</c:v>
+                  <c:v>-4.4554455445648955E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>44.504950495049513</c:v>
+                  <c:v>-4.500450045000548E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>44.949999999999989</c:v>
+                  <c:v>-4.5454545454504114E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>45.395049504950492</c:v>
+                  <c:v>-4.5904590459002748E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>45.840099009900968</c:v>
+                  <c:v>-4.635463546364349E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>46.2851485148515</c:v>
+                  <c:v>-4.6804680468142124E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>46.730198019801975</c:v>
+                  <c:v>-4.7254725472498649E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>47.175247524752479</c:v>
+                  <c:v>-4.7704770476997282E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>47.620297029702982</c:v>
+                  <c:v>-4.8154815481495916E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>48.065346534653457</c:v>
+                  <c:v>-4.8604860486136658E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>48.510396039603961</c:v>
+                  <c:v>-4.9054905490635292E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>48.955445544554465</c:v>
+                  <c:v>-4.9504950494991817E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>49.40049504950494</c:v>
+                  <c:v>-4.9954995499490451E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>49.845544554455444</c:v>
+                  <c:v>-5.0405040503989085E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>50.290594059405947</c:v>
+                  <c:v>-5.0855085508629827E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>50.735643564356451</c:v>
+                  <c:v>-5.1305130513128461E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>51.180693069306926</c:v>
+                  <c:v>-5.1755175517484986E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>51.625742574257401</c:v>
+                  <c:v>-5.220522052198362E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>52.070792079207934</c:v>
+                  <c:v>-5.2655265526482253E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>52.515841584158409</c:v>
+                  <c:v>-5.3105310531122996E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>52.960891089108912</c:v>
+                  <c:v>-5.3555355535621629E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>53.405940594059416</c:v>
+                  <c:v>-5.4005400540120263E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>53.850990099009891</c:v>
+                  <c:v>-5.4455445544476788E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>54.296039603960395</c:v>
+                  <c:v>-5.490549054911753E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>54.74108910891087</c:v>
+                  <c:v>-5.5355535553474056E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>55.186138613861402</c:v>
+                  <c:v>-5.5805580557972689E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>55.631188118811878</c:v>
+                  <c:v>-5.6255625562471323E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>56.076237623762381</c:v>
+                  <c:v>-5.6705670566969957E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>56.521287128712885</c:v>
+                  <c:v>-5.715571557146859E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>56.96633663366336</c:v>
+                  <c:v>-5.7605760576109333E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>57.411386138613864</c:v>
+                  <c:v>-5.8055805580465858E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>57.856435643564339</c:v>
+                  <c:v>-5.85058505851066E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>58.301485148514843</c:v>
+                  <c:v>-5.8955895589747342E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>58.746534653465346</c:v>
+                  <c:v>-5.9405940594103868E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>59.19158415841585</c:v>
+                  <c:v>-5.985598559874461E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>59.636633663366354</c:v>
+                  <c:v>-6.0306030602816918E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>60.081683168316829</c:v>
+                  <c:v>-6.075607560745766E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>60.526732673267304</c:v>
+                  <c:v>-6.1206120612098402E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>60.971782178217808</c:v>
+                  <c:v>-6.1656165616454928E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>61.416831683168311</c:v>
+                  <c:v>-6.210621062109567E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>61.861881188118844</c:v>
+                  <c:v>-6.2556255625452195E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>62.306930693069319</c:v>
+                  <c:v>-6.3006300630092937E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>62.751980198019794</c:v>
+                  <c:v>-6.345634563473368E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>63.197029702970298</c:v>
+                  <c:v>-6.3906390639090205E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>63.642079207920773</c:v>
+                  <c:v>-6.4356435643730947E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>64.087128712871305</c:v>
+                  <c:v>-6.4806480648087472E-3</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>64.53217821782178</c:v>
+                  <c:v>-6.5256525652443997E-3</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>64.977227722772284</c:v>
+                  <c:v>-6.570657065708474E-3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>65.422277227722788</c:v>
+                  <c:v>-6.6156615661441265E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>65.867326732673263</c:v>
+                  <c:v>-6.6606660666082007E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>66.312376237623766</c:v>
+                  <c:v>-6.7056705670438532E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>66.757425742574242</c:v>
+                  <c:v>-6.7506750675079275E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>67.202475247524745</c:v>
+                  <c:v>-6.7956795679720017E-3</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>67.647524752475249</c:v>
+                  <c:v>-6.8406840684076542E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>68.092574257425753</c:v>
+                  <c:v>-6.8856885688717284E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>68.537623762376256</c:v>
+                  <c:v>-6.9306930693073809E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>68.982673267326732</c:v>
+                  <c:v>-6.9756975697714552E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>69.427722772277207</c:v>
+                  <c:v>-7.0207020702071077E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>69.87277227722771</c:v>
+                  <c:v>-7.0657065706427602E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>70.317821782178214</c:v>
+                  <c:v>-7.1107110711068344E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>70.762871287128718</c:v>
+                  <c:v>-7.1557155715424869E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>71.207920792079221</c:v>
+                  <c:v>-7.2007200720065612E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>71.652970297029697</c:v>
+                  <c:v>-7.2457245724706354E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>72.0980198019802</c:v>
+                  <c:v>-7.2907290729062879E-3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>72.543069306930676</c:v>
+                  <c:v>-7.3357335733703621E-3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>72.988118811881179</c:v>
+                  <c:v>-7.3807380738060147E-3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>73.433168316831683</c:v>
+                  <c:v>-7.4257425742700889E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>73.878217821782187</c:v>
+                  <c:v>-7.4707470747057414E-3</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>74.32326732673269</c:v>
+                  <c:v>-7.5157515751413939E-3</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>74.768316831683165</c:v>
+                  <c:v>-7.5607560756054681E-3</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>75.213366336633669</c:v>
+                  <c:v>-7.6057605760411207E-3</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>75.658415841584144</c:v>
+                  <c:v>-7.6507650765051949E-3</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>76.103465346534648</c:v>
+                  <c:v>-7.6957695769692691E-3</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>76.54851485148518</c:v>
+                  <c:v>-7.7407740774049216E-3</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>76.993564356435655</c:v>
+                  <c:v>-7.7857785778689959E-3</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>77.438613861386159</c:v>
+                  <c:v>-7.8307830783046484E-3</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>77.883663366336634</c:v>
+                  <c:v>-7.8757875787687226E-3</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>78.328712871287109</c:v>
+                  <c:v>-7.9207920792327968E-3</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>78.773762376237613</c:v>
+                  <c:v>-7.9657965796400276E-3</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>79.218811881188117</c:v>
+                  <c:v>-8.0108010801041019E-3</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>79.663861386138649</c:v>
+                  <c:v>-8.0558055805397544E-3</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>80.108910891089124</c:v>
+                  <c:v>-8.1008100810038286E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>80.553960396039599</c:v>
+                  <c:v>-8.1458145814679028E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>80.999009900990075</c:v>
+                  <c:v>-8.1908190819035553E-3</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>81.444059405940607</c:v>
+                  <c:v>-8.2358235823676296E-3</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>81.889108910891082</c:v>
+                  <c:v>-8.2808280828032821E-3</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>82.334158415841557</c:v>
+                  <c:v>-8.3258325832673563E-3</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>82.779207920792089</c:v>
+                  <c:v>-8.3708370837314305E-3</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>83.224257425742564</c:v>
+                  <c:v>-8.4158415841386613E-3</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>83.669306930693097</c:v>
+                  <c:v>-8.4608460846027356E-3</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>84.114356435643572</c:v>
+                  <c:v>-8.5058505850383881E-3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>84.559405940594047</c:v>
+                  <c:v>-8.5508550855024623E-3</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>85.004455445544522</c:v>
+                  <c:v>-8.5958595859665365E-3</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>85.449504950494998</c:v>
+                  <c:v>-8.6408640864021891E-3</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>85.894554455445586</c:v>
+                  <c:v>-8.6858685868662633E-3</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>86.339603960396062</c:v>
+                  <c:v>-8.7308730873019158E-3</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>86.784653465346537</c:v>
+                  <c:v>-8.77587758776599E-3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>87.229702970297012</c:v>
+                  <c:v>-8.8208820882300643E-3</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>87.674752475247487</c:v>
+                  <c:v>-8.8658865886657168E-3</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>88.119801980198076</c:v>
+                  <c:v>-8.910891089129791E-3</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>88.564851485148495</c:v>
+                  <c:v>-8.9558955895370218E-3</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>89.009900990099027</c:v>
+                  <c:v>-9.000900090001096E-3</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>89.454950495049502</c:v>
+                  <c:v>-9.0459045904651703E-3</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>89.899999999999977</c:v>
+                  <c:v>-9.0909090909008228E-3</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>90.345049504950509</c:v>
+                  <c:v>-9.135913591364897E-3</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>90.790099009900985</c:v>
+                  <c:v>-9.1809180918005495E-3</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>91.235148514851517</c:v>
+                  <c:v>-9.2259225922646237E-3</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>91.680198019801935</c:v>
+                  <c:v>-9.270927092728698E-3</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>92.125247524752467</c:v>
+                  <c:v>-9.3159315931643505E-3</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>92.570297029702999</c:v>
+                  <c:v>-9.3609360936284247E-3</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>93.015346534653474</c:v>
+                  <c:v>-9.4059405940356555E-3</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>93.46039603960395</c:v>
+                  <c:v>-9.4509450944997297E-3</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>93.905445544554425</c:v>
+                  <c:v>-9.495949594963804E-3</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>94.350495049504957</c:v>
+                  <c:v>-9.5409540953994565E-3</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>94.795544554455432</c:v>
+                  <c:v>-9.5859585958635307E-3</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>95.240594059405964</c:v>
+                  <c:v>-9.6309630962991832E-3</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>95.68564356435644</c:v>
+                  <c:v>-9.6759675967632575E-3</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>96.130693069306915</c:v>
+                  <c:v>-9.7209720972273317E-3</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>96.57574257425739</c:v>
+                  <c:v>-9.7659765976629842E-3</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>97.020792079207922</c:v>
+                  <c:v>-9.8109810981270584E-3</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>97.465841584158454</c:v>
+                  <c:v>-9.8559855985627109E-3</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>97.910891089108929</c:v>
+                  <c:v>-9.9009900989983635E-3</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>98.355940594059405</c:v>
+                  <c:v>-9.9459945994624377E-3</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>98.80099009900988</c:v>
+                  <c:v>-9.9909990998980902E-3</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>99.246039603960412</c:v>
+                  <c:v>-1.0036003600362164E-2</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>99.691089108910887</c:v>
+                  <c:v>-1.0081008100797817E-2</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>100.13613861386136</c:v>
+                  <c:v>-1.0126012601261891E-2</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>100.58118811881189</c:v>
+                  <c:v>-1.0171017101725965E-2</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>101.02623762376237</c:v>
+                  <c:v>-1.0216021602161618E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10019,11 +10019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189475648"/>
-        <c:axId val="189476224"/>
+        <c:axId val="110467840"/>
+        <c:axId val="110468416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189475648"/>
+        <c:axId val="110467840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10053,15 +10053,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189476224"/>
+        <c:crossAx val="110468416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189476224"/>
+        <c:axId val="110468416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10088,7 +10087,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189475648"/>
+        <c:crossAx val="110467840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10614,7 +10613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -22616,7 +22615,7 @@
     </row>
     <row r="322" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K322">
-        <f t="shared" ref="K322:K385" si="10">L322+($B$12*L322)*(1/(1+($B$13*L322)+($B$14*$B$19)+($B$15)))*($B$16/($B$16+$B$17))-($B$18*L322)</f>
+        <f t="shared" ref="K322:K379" si="10">L322+($B$12*L322)*(1/(1+($B$13*L322)+($B$14*$B$19)+($B$15)))*($B$16/($B$16+$B$17))-($B$18*L322)</f>
         <v>315.94029850746267</v>
       </c>
       <c r="L322">
@@ -23380,7 +23379,7 @@
   <dimension ref="A1:O229"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27407,8 +27406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N229"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27454,14 +27453,14 @@
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>1.445049504950495</v>
+        <v>0.99995499549954991</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="1">L3-M3</f>
-        <v>0.445049504950495</v>
+        <v>-4.5004500450085416E-5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -27474,14 +27473,14 @@
       <c r="J4" s="3"/>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>2.89009900990099</v>
+        <v>1.9999099909990998</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>0.89009900990099</v>
+        <v>-9.0009000900170832E-5</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -27494,14 +27493,14 @@
       <c r="J5" s="3"/>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>4.3351485148514843</v>
+        <v>2.99986498649865</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>1.3351485148514843</v>
+        <v>-1.350135013500342E-4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -27514,14 +27513,14 @@
       <c r="J6" s="3"/>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>5.78019801980198</v>
+        <v>3.9998199819981997</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>1.78019801980198</v>
+        <v>-1.8001800180034166E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -27534,14 +27533,14 @@
       <c r="J7" s="3"/>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>7.2252475247524757</v>
+        <v>4.9997749774977498</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>2.2252475247524757</v>
+        <v>-2.2502250225020504E-4</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -27554,41 +27553,41 @@
       <c r="J8" s="3"/>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>8.6702970297029687</v>
+        <v>5.9997299729972999</v>
       </c>
       <c r="M8">
         <v>6</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>2.6702970297029687</v>
+        <v>-2.7002700270006841E-4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>10.115346534653465</v>
+        <v>6.9996849684968501</v>
       </c>
       <c r="M9">
         <v>7</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>3.1153465346534652</v>
+        <v>-3.1503150314993178E-4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H10" s="3"/>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>11.56039603960396</v>
+        <v>7.9996399639963993</v>
       </c>
       <c r="M10">
         <v>8</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>3.56039603960396</v>
+        <v>-3.6003600360068333E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -27600,14 +27599,14 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>13.005445544554457</v>
+        <v>8.9995949594959495</v>
       </c>
       <c r="M11">
         <v>9</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>4.0054455445544566</v>
+        <v>-4.050405040505467E-4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -27619,14 +27618,14 @@
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>14.450495049504951</v>
+        <v>9.9995499549954996</v>
       </c>
       <c r="M12">
         <v>10</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>4.4504950495049513</v>
+        <v>-4.5004500450041007E-4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -27634,18 +27633,18 @@
         <v>52</v>
       </c>
       <c r="B13" s="12">
-        <v>5</v>
+        <v>5.5500000000000002E-3</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>15.895544554455444</v>
+        <v>10.999504950495048</v>
       </c>
       <c r="M13">
         <v>11</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>4.8955445544554443</v>
+        <v>-4.950495049520498E-4</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -27657,14 +27656,14 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>17.340594059405937</v>
+        <v>11.9994599459946</v>
       </c>
       <c r="M14">
         <v>12</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>5.3405940594059373</v>
+        <v>-5.4005400540013682E-4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -27676,14 +27675,14 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>18.785643564356437</v>
+        <v>12.999414941494148</v>
       </c>
       <c r="M15">
         <v>13</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>5.7856435643564375</v>
+        <v>-5.8505850585177654E-4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -27695,2792 +27694,2792 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>20.23069306930693</v>
+        <v>13.9993699369937</v>
       </c>
       <c r="M16">
         <v>14</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>6.2306930693069305</v>
+        <v>-6.3006300629986356E-4</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>21.675742574257427</v>
+        <v>14.999324932493248</v>
       </c>
       <c r="M17">
         <v>15</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>6.675742574257427</v>
+        <v>-6.7506750675150329E-4</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>23.12079207920792</v>
+        <v>15.999279927992799</v>
       </c>
       <c r="M18">
         <v>16</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>7.12079207920792</v>
+        <v>-7.2007200720136666E-4</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>24.565841584158413</v>
+        <v>16.999234923492349</v>
       </c>
       <c r="M19">
         <v>17</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>7.565841584158413</v>
+        <v>-7.6507650765123003E-4</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>26.010891089108913</v>
+        <v>17.999189918991899</v>
       </c>
       <c r="M20">
         <v>18</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>8.0108910891089131</v>
+        <v>-8.100810081010934E-4</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>27.455940594059406</v>
+        <v>18.999144914491449</v>
       </c>
       <c r="M21">
         <v>19</v>
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
-        <v>8.4559405940594061</v>
+        <v>-8.5508550855095677E-4</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>28.900990099009903</v>
+        <v>19.999099909990999</v>
       </c>
       <c r="M22">
         <v>20</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>8.9009900990099027</v>
+        <v>-9.0009000900082015E-4</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>30.346039603960396</v>
+        <v>20.999054905490549</v>
       </c>
       <c r="M23">
         <v>21</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>9.3460396039603957</v>
+        <v>-9.4509450945068352E-4</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>31.791089108910889</v>
+        <v>21.999009900990096</v>
       </c>
       <c r="M24">
         <v>22</v>
       </c>
       <c r="N24">
         <f t="shared" si="1"/>
-        <v>9.7910891089108887</v>
+        <v>-9.900990099040996E-4</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>33.236138613861385</v>
+        <v>22.99896489648965</v>
       </c>
       <c r="M25">
         <v>23</v>
       </c>
       <c r="N25">
         <f t="shared" si="1"/>
-        <v>10.236138613861385</v>
+        <v>-1.0351035103504103E-3</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>34.681188118811875</v>
+        <v>23.9989198919892</v>
       </c>
       <c r="M26">
         <v>24</v>
       </c>
       <c r="N26">
         <f t="shared" si="1"/>
-        <v>10.681188118811875</v>
+        <v>-1.0801080108002736E-3</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>36.126237623762378</v>
+        <v>24.99887488748875</v>
       </c>
       <c r="M27">
         <v>25</v>
       </c>
       <c r="N27">
         <f t="shared" si="1"/>
-        <v>11.126237623762378</v>
+        <v>-1.125112511250137E-3</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>37.571287128712875</v>
+        <v>25.998829882988296</v>
       </c>
       <c r="M28">
         <v>26</v>
       </c>
       <c r="N28">
         <f t="shared" si="1"/>
-        <v>11.571287128712875</v>
+        <v>-1.1701170117035531E-3</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>39.016336633663364</v>
+        <v>26.998784878487847</v>
       </c>
       <c r="M29">
         <v>27</v>
       </c>
       <c r="N29">
         <f t="shared" si="1"/>
-        <v>12.016336633663364</v>
+        <v>-1.2151215121534165E-3</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>40.461386138613861</v>
+        <v>27.9987398739874</v>
       </c>
       <c r="M30">
         <v>28</v>
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
-        <v>12.461386138613861</v>
+        <v>-1.2601260125997271E-3</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>41.90643564356435</v>
+        <v>28.99869486948695</v>
       </c>
       <c r="M31">
         <v>29</v>
       </c>
       <c r="N31">
         <f t="shared" si="1"/>
-        <v>12.90643564356435</v>
+        <v>-1.3051305130495905E-3</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D32" s="9"/>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>43.351485148514854</v>
+        <v>29.998649864986497</v>
       </c>
       <c r="M32">
         <v>30</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>13.351485148514854</v>
+        <v>-1.3501350135030066E-3</v>
       </c>
     </row>
     <row r="33" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>44.796534653465351</v>
+        <v>30.998604860486051</v>
       </c>
       <c r="M33">
         <v>31</v>
       </c>
       <c r="N33">
         <f t="shared" si="1"/>
-        <v>13.796534653465351</v>
+        <v>-1.3951395139493172E-3</v>
       </c>
     </row>
     <row r="34" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>46.24158415841584</v>
+        <v>31.998559855985597</v>
       </c>
       <c r="M34">
         <v>32</v>
       </c>
       <c r="N34">
         <f t="shared" si="1"/>
-        <v>14.24158415841584</v>
+        <v>-1.4401440144027333E-3</v>
       </c>
     </row>
     <row r="35" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>47.686633663366337</v>
+        <v>32.998514851485147</v>
       </c>
       <c r="M35">
         <v>33</v>
       </c>
       <c r="N35">
         <f t="shared" si="1"/>
-        <v>14.686633663366337</v>
+        <v>-1.4851485148525967E-3</v>
       </c>
     </row>
     <row r="36" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>49.131683168316826</v>
+        <v>33.998469846984698</v>
       </c>
       <c r="M36">
         <v>34</v>
       </c>
       <c r="N36">
         <f t="shared" si="1"/>
-        <v>15.131683168316826</v>
+        <v>-1.5301530153024601E-3</v>
       </c>
     </row>
     <row r="37" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L37">
         <f t="shared" si="0"/>
-        <v>50.57673267326733</v>
+        <v>34.998424842484248</v>
       </c>
       <c r="M37">
         <v>35</v>
       </c>
       <c r="N37">
         <f t="shared" si="1"/>
-        <v>15.57673267326733</v>
+        <v>-1.5751575157523234E-3</v>
       </c>
     </row>
     <row r="38" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>52.021782178217826</v>
+        <v>35.998379837983798</v>
       </c>
       <c r="M38">
         <v>36</v>
       </c>
       <c r="N38">
         <f t="shared" si="1"/>
-        <v>16.021782178217826</v>
+        <v>-1.6201620162021868E-3</v>
       </c>
     </row>
     <row r="39" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>53.466831683168316</v>
+        <v>36.998334833483348</v>
       </c>
       <c r="M39">
         <v>37</v>
       </c>
       <c r="N39">
         <f t="shared" si="1"/>
-        <v>16.466831683168316</v>
+        <v>-1.6651665166520502E-3</v>
       </c>
     </row>
     <row r="40" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>54.911881188118812</v>
+        <v>37.998289828982898</v>
       </c>
       <c r="M40">
         <v>38</v>
       </c>
       <c r="N40">
         <f t="shared" si="1"/>
-        <v>16.911881188118812</v>
+        <v>-1.7101710171019135E-3</v>
       </c>
     </row>
     <row r="41" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>56.356930693069302</v>
+        <v>38.998244824482448</v>
       </c>
       <c r="M41">
         <v>39</v>
       </c>
       <c r="N41">
         <f t="shared" si="1"/>
-        <v>17.356930693069302</v>
+        <v>-1.7551755175517769E-3</v>
       </c>
     </row>
     <row r="42" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>57.801980198019805</v>
+        <v>39.998199819981998</v>
       </c>
       <c r="M42">
         <v>40</v>
       </c>
       <c r="N42">
         <f t="shared" si="1"/>
-        <v>17.801980198019805</v>
+        <v>-1.8001800180016403E-3</v>
       </c>
     </row>
     <row r="43" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>59.247029702970295</v>
+        <v>40.998154815481548</v>
       </c>
       <c r="M43">
         <v>41</v>
       </c>
       <c r="N43">
         <f t="shared" si="1"/>
-        <v>18.247029702970295</v>
+        <v>-1.8451845184515037E-3</v>
       </c>
     </row>
     <row r="44" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>60.692079207920791</v>
+        <v>41.998109810981099</v>
       </c>
       <c r="M44">
         <v>42</v>
       </c>
       <c r="N44">
         <f t="shared" si="1"/>
-        <v>18.692079207920791</v>
+        <v>-1.890189018901367E-3</v>
       </c>
     </row>
     <row r="45" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>62.137128712871295</v>
+        <v>42.998064806480649</v>
       </c>
       <c r="M45">
         <v>43</v>
       </c>
       <c r="N45">
         <f t="shared" si="1"/>
-        <v>19.137128712871295</v>
+        <v>-1.9351935193512304E-3</v>
       </c>
     </row>
     <row r="46" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>63.582178217821777</v>
+        <v>43.998019801980192</v>
       </c>
       <c r="M46">
         <v>44</v>
       </c>
       <c r="N46">
         <f t="shared" si="1"/>
-        <v>19.582178217821777</v>
+        <v>-1.9801980198081992E-3</v>
       </c>
     </row>
     <row r="47" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>65.027227722772281</v>
+        <v>44.997974797479749</v>
       </c>
       <c r="M47">
         <v>45</v>
       </c>
       <c r="N47">
         <f t="shared" si="1"/>
-        <v>20.027227722772281</v>
+        <v>-2.0252025202509571E-3</v>
       </c>
     </row>
     <row r="48" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>66.47227722772277</v>
+        <v>45.997929792979299</v>
       </c>
       <c r="M48">
         <v>46</v>
       </c>
       <c r="N48">
         <f t="shared" si="1"/>
-        <v>20.47227722772277</v>
+        <v>-2.0702070207008205E-3</v>
       </c>
     </row>
     <row r="49" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L49">
         <f t="shared" si="0"/>
-        <v>67.917326732673274</v>
+        <v>46.997884788478849</v>
       </c>
       <c r="M49">
         <v>47</v>
       </c>
       <c r="N49">
         <f t="shared" si="1"/>
-        <v>20.917326732673274</v>
+        <v>-2.1152115211506839E-3</v>
       </c>
     </row>
     <row r="50" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L50">
         <f t="shared" si="0"/>
-        <v>69.362376237623749</v>
+        <v>47.997839783978399</v>
       </c>
       <c r="M50">
         <v>48</v>
       </c>
       <c r="N50">
         <f t="shared" si="1"/>
-        <v>21.362376237623749</v>
+        <v>-2.1602160216005473E-3</v>
       </c>
     </row>
     <row r="51" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L51">
         <f t="shared" si="0"/>
-        <v>70.807425742574253</v>
+        <v>48.997794779477942</v>
       </c>
       <c r="M51">
         <v>49</v>
       </c>
       <c r="N51">
         <f t="shared" si="1"/>
-        <v>21.807425742574253</v>
+        <v>-2.2052205220575161E-3</v>
       </c>
     </row>
     <row r="52" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L52">
         <f t="shared" si="0"/>
-        <v>72.252475247524757</v>
+        <v>49.9977497749775</v>
       </c>
       <c r="M52">
         <v>50</v>
       </c>
       <c r="N52">
         <f t="shared" si="1"/>
-        <v>22.252475247524757</v>
+        <v>-2.250225022500274E-3</v>
       </c>
     </row>
     <row r="53" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L53">
         <f t="shared" si="0"/>
-        <v>73.697524752475246</v>
+        <v>50.99770477047705</v>
       </c>
       <c r="M53">
         <v>51</v>
       </c>
       <c r="N53">
         <f t="shared" si="1"/>
-        <v>22.697524752475246</v>
+        <v>-2.2952295229501374E-3</v>
       </c>
     </row>
     <row r="54" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L54">
         <f t="shared" si="0"/>
-        <v>75.14257425742575</v>
+        <v>51.997659765976593</v>
       </c>
       <c r="M54">
         <v>52</v>
       </c>
       <c r="N54">
         <f t="shared" si="1"/>
-        <v>23.14257425742575</v>
+        <v>-2.3402340234071062E-3</v>
       </c>
     </row>
     <row r="55" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L55">
         <f t="shared" si="0"/>
-        <v>76.587623762376239</v>
+        <v>52.99761476147615</v>
       </c>
       <c r="M55">
         <v>53</v>
       </c>
       <c r="N55">
         <f t="shared" si="1"/>
-        <v>23.587623762376239</v>
+        <v>-2.3852385238498641E-3</v>
       </c>
     </row>
     <row r="56" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>78.032673267326729</v>
+        <v>53.997569756975693</v>
       </c>
       <c r="M56">
         <v>54</v>
       </c>
       <c r="N56">
         <f t="shared" si="1"/>
-        <v>24.032673267326729</v>
+        <v>-2.4302430243068329E-3</v>
       </c>
     </row>
     <row r="57" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L57">
         <f t="shared" si="0"/>
-        <v>79.477722772277232</v>
+        <v>54.99752475247525</v>
       </c>
       <c r="M57">
         <v>55</v>
       </c>
       <c r="N57">
         <f t="shared" si="1"/>
-        <v>24.477722772277232</v>
+        <v>-2.4752475247495909E-3</v>
       </c>
     </row>
     <row r="58" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>80.922772277227722</v>
+        <v>55.997479747974801</v>
       </c>
       <c r="M58">
         <v>56</v>
       </c>
       <c r="N58">
         <f t="shared" si="1"/>
-        <v>24.922772277227722</v>
+        <v>-2.5202520251994542E-3</v>
       </c>
     </row>
     <row r="59" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L59">
         <f t="shared" si="0"/>
-        <v>82.367821782178225</v>
+        <v>56.997434743474344</v>
       </c>
       <c r="M59">
         <v>57</v>
       </c>
       <c r="N59">
         <f t="shared" si="1"/>
-        <v>25.367821782178225</v>
+        <v>-2.565256525656423E-3</v>
       </c>
     </row>
     <row r="60" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L60">
         <f t="shared" si="0"/>
-        <v>83.812871287128701</v>
+        <v>57.997389738973901</v>
       </c>
       <c r="M60">
         <v>58</v>
       </c>
       <c r="N60">
         <f t="shared" si="1"/>
-        <v>25.812871287128701</v>
+        <v>-2.610261026099181E-3</v>
       </c>
     </row>
     <row r="61" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L61">
         <f t="shared" si="0"/>
-        <v>85.257920792079204</v>
+        <v>58.997344734473444</v>
       </c>
       <c r="M61">
         <v>59</v>
       </c>
       <c r="N61">
         <f t="shared" si="1"/>
-        <v>26.257920792079204</v>
+        <v>-2.6552655265561498E-3</v>
       </c>
     </row>
     <row r="62" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L62">
         <f t="shared" si="0"/>
-        <v>86.702970297029708</v>
+        <v>59.997299729972994</v>
       </c>
       <c r="M62">
         <v>60</v>
       </c>
       <c r="N62">
         <f t="shared" si="1"/>
-        <v>26.702970297029708</v>
+        <v>-2.7002700270060132E-3</v>
       </c>
     </row>
     <row r="63" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L63">
         <f t="shared" si="0"/>
-        <v>88.148019801980197</v>
+        <v>60.997254725472544</v>
       </c>
       <c r="M63">
         <v>61</v>
       </c>
       <c r="N63">
         <f t="shared" si="1"/>
-        <v>27.148019801980197</v>
+        <v>-2.7452745274558765E-3</v>
       </c>
     </row>
     <row r="64" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L64">
         <f t="shared" si="0"/>
-        <v>89.593069306930701</v>
+        <v>61.997209720972101</v>
       </c>
       <c r="M64">
         <v>62</v>
       </c>
       <c r="N64">
         <f t="shared" si="1"/>
-        <v>27.593069306930701</v>
+        <v>-2.7902790278986345E-3</v>
       </c>
     </row>
     <row r="65" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L65">
         <f t="shared" si="0"/>
-        <v>91.038118811881191</v>
+        <v>62.997164716471652</v>
       </c>
       <c r="M65">
         <v>63</v>
       </c>
       <c r="N65">
         <f t="shared" si="1"/>
-        <v>28.038118811881191</v>
+        <v>-2.8352835283484978E-3</v>
       </c>
     </row>
     <row r="66" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L66">
         <f t="shared" ref="L66:L129" si="2">(M66+($B$12*M66)*($B$13/($B$13+$B$14))*(1/(1+B80*M66)))-($B$15*M66)</f>
-        <v>92.48316831683168</v>
+        <v>63.997119711971195</v>
       </c>
       <c r="M66">
         <v>64</v>
       </c>
       <c r="N66">
         <f t="shared" si="1"/>
-        <v>28.48316831683168</v>
+        <v>-2.8802880288054666E-3</v>
       </c>
     </row>
     <row r="67" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L67">
         <f t="shared" si="2"/>
-        <v>93.928217821782169</v>
+        <v>64.997074707470745</v>
       </c>
       <c r="M67">
         <v>65</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N130" si="3">L67-M67</f>
-        <v>28.928217821782169</v>
+        <v>-2.92529252925533E-3</v>
       </c>
     </row>
     <row r="68" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L68">
         <f t="shared" si="2"/>
-        <v>95.373267326732673</v>
+        <v>65.997029702970295</v>
       </c>
       <c r="M68">
         <v>66</v>
       </c>
       <c r="N68">
         <f t="shared" si="3"/>
-        <v>29.373267326732673</v>
+        <v>-2.9702970297051934E-3</v>
       </c>
     </row>
     <row r="69" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L69">
         <f t="shared" si="2"/>
-        <v>96.818316831683177</v>
+        <v>66.996984698469859</v>
       </c>
       <c r="M69">
         <v>67</v>
       </c>
       <c r="N69">
         <f t="shared" si="3"/>
-        <v>29.818316831683177</v>
+        <v>-3.0153015301408459E-3</v>
       </c>
     </row>
     <row r="70" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L70">
         <f t="shared" si="2"/>
-        <v>98.263366336633652</v>
+        <v>67.996939693969395</v>
       </c>
       <c r="M70">
         <v>68</v>
       </c>
       <c r="N70">
         <f t="shared" si="3"/>
-        <v>30.263366336633652</v>
+        <v>-3.0603060306049201E-3</v>
       </c>
     </row>
     <row r="71" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L71">
         <f t="shared" si="2"/>
-        <v>99.708415841584156</v>
+        <v>68.996894689468945</v>
       </c>
       <c r="M71">
         <v>69</v>
       </c>
       <c r="N71">
         <f t="shared" si="3"/>
-        <v>30.708415841584156</v>
+        <v>-3.1053105310547835E-3</v>
       </c>
     </row>
     <row r="72" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L72">
         <f t="shared" si="2"/>
-        <v>101.15346534653466</v>
+        <v>69.996849684968495</v>
       </c>
       <c r="M72">
         <v>70</v>
       </c>
       <c r="N72">
         <f t="shared" si="3"/>
-        <v>31.153465346534659</v>
+        <v>-3.1503150315046469E-3</v>
       </c>
     </row>
     <row r="73" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L73">
         <f t="shared" si="2"/>
-        <v>102.59851485148515</v>
+        <v>70.996804680468045</v>
       </c>
       <c r="M73">
         <v>71</v>
       </c>
       <c r="N73">
         <f t="shared" si="3"/>
-        <v>31.598514851485149</v>
+        <v>-3.1953195319545102E-3</v>
       </c>
     </row>
     <row r="74" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L74">
         <f t="shared" si="2"/>
-        <v>104.04356435643565</v>
+        <v>71.996759675967596</v>
       </c>
       <c r="M74">
         <v>72</v>
       </c>
       <c r="N74">
         <f t="shared" si="3"/>
-        <v>32.043564356435652</v>
+        <v>-3.2403240324043736E-3</v>
       </c>
     </row>
     <row r="75" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L75">
         <f t="shared" si="2"/>
-        <v>105.48861386138614</v>
+        <v>72.996714671467146</v>
       </c>
       <c r="M75">
         <v>73</v>
       </c>
       <c r="N75">
         <f t="shared" si="3"/>
-        <v>32.488613861386142</v>
+        <v>-3.285328532854237E-3</v>
       </c>
     </row>
     <row r="76" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L76">
         <f t="shared" si="2"/>
-        <v>106.93366336633663</v>
+        <v>73.996669666966696</v>
       </c>
       <c r="M76">
         <v>74</v>
       </c>
       <c r="N76">
         <f t="shared" si="3"/>
-        <v>32.933663366336631</v>
+        <v>-3.3303330333041004E-3</v>
       </c>
     </row>
     <row r="77" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L77">
         <f t="shared" si="2"/>
-        <v>108.37871287128712</v>
+        <v>74.996624662466246</v>
       </c>
       <c r="M77">
         <v>75</v>
       </c>
       <c r="N77">
         <f t="shared" si="3"/>
-        <v>33.378712871287121</v>
+        <v>-3.3753375337539637E-3</v>
       </c>
     </row>
     <row r="78" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L78">
         <f t="shared" si="2"/>
-        <v>109.82376237623762</v>
+        <v>75.996579657965796</v>
       </c>
       <c r="M78">
         <v>76</v>
       </c>
       <c r="N78">
         <f t="shared" si="3"/>
-        <v>33.823762376237624</v>
+        <v>-3.4203420342038271E-3</v>
       </c>
     </row>
     <row r="79" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L79">
         <f t="shared" si="2"/>
-        <v>111.26881188118813</v>
+        <v>76.996534653465346</v>
       </c>
       <c r="M79">
         <v>77</v>
       </c>
       <c r="N79">
         <f t="shared" si="3"/>
-        <v>34.268811881188128</v>
+        <v>-3.4653465346536905E-3</v>
       </c>
     </row>
     <row r="80" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L80">
         <f t="shared" si="2"/>
-        <v>112.7138613861386</v>
+        <v>77.996489648964896</v>
       </c>
       <c r="M80">
         <v>78</v>
       </c>
       <c r="N80">
         <f t="shared" si="3"/>
-        <v>34.713861386138603</v>
+        <v>-3.5103510351035538E-3</v>
       </c>
     </row>
     <row r="81" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L81">
         <f t="shared" si="2"/>
-        <v>114.15891089108911</v>
+        <v>78.996444644464447</v>
       </c>
       <c r="M81">
         <v>79</v>
       </c>
       <c r="N81">
         <f t="shared" si="3"/>
-        <v>35.158910891089107</v>
+        <v>-3.5553555355534172E-3</v>
       </c>
     </row>
     <row r="82" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L82">
         <f t="shared" si="2"/>
-        <v>115.60396039603961</v>
+        <v>79.996399639963997</v>
       </c>
       <c r="M82">
         <v>80</v>
       </c>
       <c r="N82">
         <f t="shared" si="3"/>
-        <v>35.603960396039611</v>
+        <v>-3.6003600360032806E-3</v>
       </c>
     </row>
     <row r="83" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L83">
         <f t="shared" si="2"/>
-        <v>117.0490099009901</v>
+        <v>80.996354635463547</v>
       </c>
       <c r="M83">
         <v>81</v>
       </c>
       <c r="N83">
         <f t="shared" si="3"/>
-        <v>36.0490099009901</v>
+        <v>-3.645364536453144E-3</v>
       </c>
     </row>
     <row r="84" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L84">
         <f t="shared" si="2"/>
-        <v>118.49405940594059</v>
+        <v>81.996309630963097</v>
       </c>
       <c r="M84">
         <v>82</v>
       </c>
       <c r="N84">
         <f t="shared" si="3"/>
-        <v>36.49405940594059</v>
+        <v>-3.6903690369030073E-3</v>
       </c>
     </row>
     <row r="85" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L85">
         <f t="shared" si="2"/>
-        <v>119.93910891089109</v>
+        <v>82.996264626462647</v>
       </c>
       <c r="M85">
         <v>83</v>
       </c>
       <c r="N85">
         <f t="shared" si="3"/>
-        <v>36.939108910891093</v>
+        <v>-3.7353735373528707E-3</v>
       </c>
     </row>
     <row r="86" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L86">
         <f t="shared" si="2"/>
-        <v>121.38415841584158</v>
+        <v>83.996219621962197</v>
       </c>
       <c r="M86">
         <v>84</v>
       </c>
       <c r="N86">
         <f t="shared" si="3"/>
-        <v>37.384158415841583</v>
+        <v>-3.7803780378027341E-3</v>
       </c>
     </row>
     <row r="87" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L87">
         <f t="shared" si="2"/>
-        <v>122.82920792079207</v>
+        <v>84.996174617461747</v>
       </c>
       <c r="M87">
         <v>85</v>
       </c>
       <c r="N87">
         <f t="shared" si="3"/>
-        <v>37.829207920792072</v>
+        <v>-3.8253825382525974E-3</v>
       </c>
     </row>
     <row r="88" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L88">
         <f t="shared" si="2"/>
-        <v>124.27425742574259</v>
+        <v>85.996129612961298</v>
       </c>
       <c r="M88">
         <v>86</v>
       </c>
       <c r="N88">
         <f t="shared" si="3"/>
-        <v>38.27425742574259</v>
+        <v>-3.8703870387024608E-3</v>
       </c>
     </row>
     <row r="89" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L89">
         <f t="shared" si="2"/>
-        <v>125.71930693069308</v>
+        <v>86.996084608460848</v>
       </c>
       <c r="M89">
         <v>87</v>
       </c>
       <c r="N89">
         <f t="shared" si="3"/>
-        <v>38.719306930693079</v>
+        <v>-3.9153915391523242E-3</v>
       </c>
     </row>
     <row r="90" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L90">
         <f t="shared" si="2"/>
-        <v>127.16435643564355</v>
+        <v>87.996039603960384</v>
       </c>
       <c r="M90">
         <v>88</v>
       </c>
       <c r="N90">
         <f t="shared" si="3"/>
-        <v>39.164356435643555</v>
+        <v>-3.9603960396163984E-3</v>
       </c>
     </row>
     <row r="91" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L91">
         <f t="shared" si="2"/>
-        <v>128.60940594059406</v>
+        <v>88.995994599459948</v>
       </c>
       <c r="M91">
         <v>89</v>
       </c>
       <c r="N91">
         <f t="shared" si="3"/>
-        <v>39.609405940594058</v>
+        <v>-4.0054005400520509E-3</v>
       </c>
     </row>
     <row r="92" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L92">
         <f t="shared" si="2"/>
-        <v>130.05445544554456</v>
+        <v>89.995949594959498</v>
       </c>
       <c r="M92">
         <v>90</v>
       </c>
       <c r="N92">
         <f t="shared" si="3"/>
-        <v>40.054455445544562</v>
+        <v>-4.0504050405019143E-3</v>
       </c>
     </row>
     <row r="93" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L93">
         <f t="shared" si="2"/>
-        <v>131.49950495049504</v>
+        <v>90.995904590459048</v>
       </c>
       <c r="M93">
         <v>91</v>
       </c>
       <c r="N93">
         <f t="shared" si="3"/>
-        <v>40.499504950495037</v>
+        <v>-4.0954095409517777E-3</v>
       </c>
     </row>
     <row r="94" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L94">
         <f t="shared" si="2"/>
-        <v>132.94455445544554</v>
+        <v>91.995859585958598</v>
       </c>
       <c r="M94">
         <v>92</v>
       </c>
       <c r="N94">
         <f t="shared" si="3"/>
-        <v>40.944554455445541</v>
+        <v>-4.140414041401641E-3</v>
       </c>
     </row>
     <row r="95" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L95">
         <f t="shared" si="2"/>
-        <v>134.38960396039604</v>
+        <v>92.995814581458134</v>
       </c>
       <c r="M95">
         <v>93</v>
       </c>
       <c r="N95">
         <f t="shared" si="3"/>
-        <v>41.389603960396045</v>
+        <v>-4.1854185418657153E-3</v>
       </c>
     </row>
     <row r="96" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L96">
         <f t="shared" si="2"/>
-        <v>135.83465346534655</v>
+        <v>93.995769576957699</v>
       </c>
       <c r="M96">
         <v>94</v>
       </c>
       <c r="N96">
         <f t="shared" si="3"/>
-        <v>41.834653465346548</v>
+        <v>-4.2304230423013678E-3</v>
       </c>
     </row>
     <row r="97" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L97">
         <f t="shared" si="2"/>
-        <v>137.27970297029702</v>
+        <v>94.995724572457249</v>
       </c>
       <c r="M97">
         <v>95</v>
       </c>
       <c r="N97">
         <f t="shared" si="3"/>
-        <v>42.279702970297024</v>
+        <v>-4.2754275427512312E-3</v>
       </c>
     </row>
     <row r="98" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L98">
         <f t="shared" si="2"/>
-        <v>138.7247524752475</v>
+        <v>95.995679567956799</v>
       </c>
       <c r="M98">
         <v>96</v>
       </c>
       <c r="N98">
         <f t="shared" si="3"/>
-        <v>42.724752475247499</v>
+        <v>-4.3204320432010945E-3</v>
       </c>
     </row>
     <row r="99" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L99">
         <f t="shared" si="2"/>
-        <v>140.16980198019803</v>
+        <v>96.995634563456349</v>
       </c>
       <c r="M99">
         <v>97</v>
       </c>
       <c r="N99">
         <f t="shared" si="3"/>
-        <v>43.169801980198031</v>
+        <v>-4.3654365436509579E-3</v>
       </c>
     </row>
     <row r="100" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L100">
         <f t="shared" si="2"/>
-        <v>141.61485148514851</v>
+        <v>97.995589558955885</v>
       </c>
       <c r="M100">
         <v>98</v>
       </c>
       <c r="N100">
         <f t="shared" si="3"/>
-        <v>43.614851485148506</v>
+        <v>-4.4104410441150321E-3</v>
       </c>
     </row>
     <row r="101" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L101">
         <f t="shared" si="2"/>
-        <v>143.05990099009904</v>
+        <v>98.995544554455435</v>
       </c>
       <c r="M101">
         <v>99</v>
       </c>
       <c r="N101">
         <f t="shared" si="3"/>
-        <v>44.059900990099038</v>
+        <v>-4.4554455445648955E-3</v>
       </c>
     </row>
     <row r="102" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L102">
         <f t="shared" si="2"/>
-        <v>144.50495049504951</v>
+        <v>99.995499549954999</v>
       </c>
       <c r="M102">
         <v>100</v>
       </c>
       <c r="N102">
         <f t="shared" si="3"/>
-        <v>44.504950495049513</v>
+        <v>-4.500450045000548E-3</v>
       </c>
     </row>
     <row r="103" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L103">
         <f t="shared" si="2"/>
-        <v>145.94999999999999</v>
+        <v>100.99545454545455</v>
       </c>
       <c r="M103">
         <v>101</v>
       </c>
       <c r="N103">
         <f t="shared" si="3"/>
-        <v>44.949999999999989</v>
+        <v>-4.5454545454504114E-3</v>
       </c>
     </row>
     <row r="104" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L104">
         <f t="shared" si="2"/>
-        <v>147.39504950495049</v>
+        <v>101.9954095409541</v>
       </c>
       <c r="M104">
         <v>102</v>
       </c>
       <c r="N104">
         <f t="shared" si="3"/>
-        <v>45.395049504950492</v>
+        <v>-4.5904590459002748E-3</v>
       </c>
     </row>
     <row r="105" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L105">
         <f t="shared" si="2"/>
-        <v>148.84009900990097</v>
+        <v>102.99536453645364</v>
       </c>
       <c r="M105">
         <v>103</v>
       </c>
       <c r="N105">
         <f t="shared" si="3"/>
-        <v>45.840099009900968</v>
+        <v>-4.635463546364349E-3</v>
       </c>
     </row>
     <row r="106" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L106">
         <f t="shared" si="2"/>
-        <v>150.2851485148515</v>
+        <v>103.99531953195319</v>
       </c>
       <c r="M106">
         <v>104</v>
       </c>
       <c r="N106">
         <f t="shared" si="3"/>
-        <v>46.2851485148515</v>
+        <v>-4.6804680468142124E-3</v>
       </c>
     </row>
     <row r="107" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L107">
         <f t="shared" si="2"/>
-        <v>151.73019801980197</v>
+        <v>104.99527452745275</v>
       </c>
       <c r="M107">
         <v>105</v>
       </c>
       <c r="N107">
         <f t="shared" si="3"/>
-        <v>46.730198019801975</v>
+        <v>-4.7254725472498649E-3</v>
       </c>
     </row>
     <row r="108" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L108">
         <f t="shared" si="2"/>
-        <v>153.17524752475248</v>
+        <v>105.9952295229523</v>
       </c>
       <c r="M108">
         <v>106</v>
       </c>
       <c r="N108">
         <f t="shared" si="3"/>
-        <v>47.175247524752479</v>
+        <v>-4.7704770476997282E-3</v>
       </c>
     </row>
     <row r="109" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L109">
         <f t="shared" si="2"/>
-        <v>154.62029702970298</v>
+        <v>106.99518451845185</v>
       </c>
       <c r="M109">
         <v>107</v>
       </c>
       <c r="N109">
         <f t="shared" si="3"/>
-        <v>47.620297029702982</v>
+        <v>-4.8154815481495916E-3</v>
       </c>
     </row>
     <row r="110" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L110">
         <f t="shared" si="2"/>
-        <v>156.06534653465346</v>
+        <v>107.99513951395139</v>
       </c>
       <c r="M110">
         <v>108</v>
       </c>
       <c r="N110">
         <f t="shared" si="3"/>
-        <v>48.065346534653457</v>
+        <v>-4.8604860486136658E-3</v>
       </c>
     </row>
     <row r="111" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L111">
         <f t="shared" si="2"/>
-        <v>157.51039603960396</v>
+        <v>108.99509450945094</v>
       </c>
       <c r="M111">
         <v>109</v>
       </c>
       <c r="N111">
         <f t="shared" si="3"/>
-        <v>48.510396039603961</v>
+        <v>-4.9054905490635292E-3</v>
       </c>
     </row>
     <row r="112" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L112">
         <f t="shared" si="2"/>
-        <v>158.95544554455446</v>
+        <v>109.9950495049505</v>
       </c>
       <c r="M112">
         <v>110</v>
       </c>
       <c r="N112">
         <f t="shared" si="3"/>
-        <v>48.955445544554465</v>
+        <v>-4.9504950494991817E-3</v>
       </c>
     </row>
     <row r="113" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L113">
         <f t="shared" si="2"/>
-        <v>160.40049504950494</v>
+        <v>110.99500450045005</v>
       </c>
       <c r="M113">
         <v>111</v>
       </c>
       <c r="N113">
         <f t="shared" si="3"/>
-        <v>49.40049504950494</v>
+        <v>-4.9954995499490451E-3</v>
       </c>
     </row>
     <row r="114" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L114">
         <f t="shared" si="2"/>
-        <v>161.84554455445544</v>
+        <v>111.9949594959496</v>
       </c>
       <c r="M114">
         <v>112</v>
       </c>
       <c r="N114">
         <f t="shared" si="3"/>
-        <v>49.845544554455444</v>
+        <v>-5.0405040503989085E-3</v>
       </c>
     </row>
     <row r="115" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L115">
         <f t="shared" si="2"/>
-        <v>163.29059405940595</v>
+        <v>112.99491449144914</v>
       </c>
       <c r="M115">
         <v>113</v>
       </c>
       <c r="N115">
         <f t="shared" si="3"/>
-        <v>50.290594059405947</v>
+        <v>-5.0855085508629827E-3</v>
       </c>
     </row>
     <row r="116" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L116">
         <f t="shared" si="2"/>
-        <v>164.73564356435645</v>
+        <v>113.99486948694869</v>
       </c>
       <c r="M116">
         <v>114</v>
       </c>
       <c r="N116">
         <f t="shared" si="3"/>
-        <v>50.735643564356451</v>
+        <v>-5.1305130513128461E-3</v>
       </c>
     </row>
     <row r="117" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L117">
         <f t="shared" si="2"/>
-        <v>166.18069306930693</v>
+        <v>114.99482448244825</v>
       </c>
       <c r="M117">
         <v>115</v>
       </c>
       <c r="N117">
         <f t="shared" si="3"/>
-        <v>51.180693069306926</v>
+        <v>-5.1755175517484986E-3</v>
       </c>
     </row>
     <row r="118" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L118">
         <f t="shared" si="2"/>
-        <v>167.6257425742574</v>
+        <v>115.9947794779478</v>
       </c>
       <c r="M118">
         <v>116</v>
       </c>
       <c r="N118">
         <f t="shared" si="3"/>
-        <v>51.625742574257401</v>
+        <v>-5.220522052198362E-3</v>
       </c>
     </row>
     <row r="119" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L119">
         <f t="shared" si="2"/>
-        <v>169.07079207920793</v>
+        <v>116.99473447344735</v>
       </c>
       <c r="M119">
         <v>117</v>
       </c>
       <c r="N119">
         <f t="shared" si="3"/>
-        <v>52.070792079207934</v>
+        <v>-5.2655265526482253E-3</v>
       </c>
     </row>
     <row r="120" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L120">
         <f t="shared" si="2"/>
-        <v>170.51584158415841</v>
+        <v>117.99468946894689</v>
       </c>
       <c r="M120">
         <v>118</v>
       </c>
       <c r="N120">
         <f t="shared" si="3"/>
-        <v>52.515841584158409</v>
+        <v>-5.3105310531122996E-3</v>
       </c>
     </row>
     <row r="121" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L121">
         <f t="shared" si="2"/>
-        <v>171.96089108910891</v>
+        <v>118.99464446444644</v>
       </c>
       <c r="M121">
         <v>119</v>
       </c>
       <c r="N121">
         <f t="shared" si="3"/>
-        <v>52.960891089108912</v>
+        <v>-5.3555355535621629E-3</v>
       </c>
     </row>
     <row r="122" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L122">
         <f t="shared" si="2"/>
-        <v>173.40594059405942</v>
+        <v>119.99459945994599</v>
       </c>
       <c r="M122">
         <v>120</v>
       </c>
       <c r="N122">
         <f t="shared" si="3"/>
-        <v>53.405940594059416</v>
+        <v>-5.4005400540120263E-3</v>
       </c>
     </row>
     <row r="123" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L123">
         <f t="shared" si="2"/>
-        <v>174.85099009900989</v>
+        <v>120.99455445544555</v>
       </c>
       <c r="M123">
         <v>121</v>
       </c>
       <c r="N123">
         <f t="shared" si="3"/>
-        <v>53.850990099009891</v>
+        <v>-5.4455445544476788E-3</v>
       </c>
     </row>
     <row r="124" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L124">
         <f t="shared" si="2"/>
-        <v>176.29603960396039</v>
+        <v>121.99450945094509</v>
       </c>
       <c r="M124">
         <v>122</v>
       </c>
       <c r="N124">
         <f t="shared" si="3"/>
-        <v>54.296039603960395</v>
+        <v>-5.490549054911753E-3</v>
       </c>
     </row>
     <row r="125" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L125">
         <f t="shared" si="2"/>
-        <v>177.74108910891087</v>
+        <v>122.99446444644465</v>
       </c>
       <c r="M125">
         <v>123</v>
       </c>
       <c r="N125">
         <f t="shared" si="3"/>
-        <v>54.74108910891087</v>
+        <v>-5.5355535553474056E-3</v>
       </c>
     </row>
     <row r="126" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L126">
         <f t="shared" si="2"/>
-        <v>179.1861386138614</v>
+        <v>123.9944194419442</v>
       </c>
       <c r="M126">
         <v>124</v>
       </c>
       <c r="N126">
         <f t="shared" si="3"/>
-        <v>55.186138613861402</v>
+        <v>-5.5805580557972689E-3</v>
       </c>
     </row>
     <row r="127" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L127">
         <f t="shared" si="2"/>
-        <v>180.63118811881188</v>
+        <v>124.99437443744375</v>
       </c>
       <c r="M127">
         <v>125</v>
       </c>
       <c r="N127">
         <f t="shared" si="3"/>
-        <v>55.631188118811878</v>
+        <v>-5.6255625562471323E-3</v>
       </c>
     </row>
     <row r="128" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L128">
         <f t="shared" si="2"/>
-        <v>182.07623762376238</v>
+        <v>125.9943294329433</v>
       </c>
       <c r="M128">
         <v>126</v>
       </c>
       <c r="N128">
         <f t="shared" si="3"/>
-        <v>56.076237623762381</v>
+        <v>-5.6705670566969957E-3</v>
       </c>
     </row>
     <row r="129" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L129">
         <f t="shared" si="2"/>
-        <v>183.52128712871288</v>
+        <v>126.99428442844285</v>
       </c>
       <c r="M129">
         <v>127</v>
       </c>
       <c r="N129">
         <f t="shared" si="3"/>
-        <v>56.521287128712885</v>
+        <v>-5.715571557146859E-3</v>
       </c>
     </row>
     <row r="130" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L130">
         <f t="shared" ref="L130:L193" si="4">(M130+($B$12*M130)*($B$13/($B$13+$B$14))*(1/(1+B144*M130)))-($B$15*M130)</f>
-        <v>184.96633663366336</v>
+        <v>127.99423942394239</v>
       </c>
       <c r="M130">
         <v>128</v>
       </c>
       <c r="N130">
         <f t="shared" si="3"/>
-        <v>56.96633663366336</v>
+        <v>-5.7605760576109333E-3</v>
       </c>
     </row>
     <row r="131" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L131">
         <f t="shared" si="4"/>
-        <v>186.41138613861386</v>
+        <v>128.99419441944195</v>
       </c>
       <c r="M131">
         <v>129</v>
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" si="5">L131-M131</f>
-        <v>57.411386138613864</v>
+        <v>-5.8055805580465858E-3</v>
       </c>
     </row>
     <row r="132" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L132">
         <f t="shared" si="4"/>
-        <v>187.85643564356434</v>
+        <v>129.99414941494149</v>
       </c>
       <c r="M132">
         <v>130</v>
       </c>
       <c r="N132">
         <f t="shared" si="5"/>
-        <v>57.856435643564339</v>
+        <v>-5.85058505851066E-3</v>
       </c>
     </row>
     <row r="133" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L133">
         <f t="shared" si="4"/>
-        <v>189.30148514851484</v>
+        <v>130.99410441044103</v>
       </c>
       <c r="M133">
         <v>131</v>
       </c>
       <c r="N133">
         <f t="shared" si="5"/>
-        <v>58.301485148514843</v>
+        <v>-5.8955895589747342E-3</v>
       </c>
     </row>
     <row r="134" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L134">
         <f t="shared" si="4"/>
-        <v>190.74653465346535</v>
+        <v>131.99405940594059</v>
       </c>
       <c r="M134">
         <v>132</v>
       </c>
       <c r="N134">
         <f t="shared" si="5"/>
-        <v>58.746534653465346</v>
+        <v>-5.9405940594103868E-3</v>
       </c>
     </row>
     <row r="135" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L135">
         <f t="shared" si="4"/>
-        <v>192.19158415841585</v>
+        <v>132.99401440144013</v>
       </c>
       <c r="M135">
         <v>133</v>
       </c>
       <c r="N135">
         <f t="shared" si="5"/>
-        <v>59.19158415841585</v>
+        <v>-5.985598559874461E-3</v>
       </c>
     </row>
     <row r="136" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L136">
         <f t="shared" si="4"/>
-        <v>193.63663366336635</v>
+        <v>133.99396939693972</v>
       </c>
       <c r="M136">
         <v>134</v>
       </c>
       <c r="N136">
         <f t="shared" si="5"/>
-        <v>59.636633663366354</v>
+        <v>-6.0306030602816918E-3</v>
       </c>
     </row>
     <row r="137" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L137">
         <f t="shared" si="4"/>
-        <v>195.08168316831683</v>
+        <v>134.99392439243925</v>
       </c>
       <c r="M137">
         <v>135</v>
       </c>
       <c r="N137">
         <f t="shared" si="5"/>
-        <v>60.081683168316829</v>
+        <v>-6.075607560745766E-3</v>
       </c>
     </row>
     <row r="138" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L138">
         <f t="shared" si="4"/>
-        <v>196.5267326732673</v>
+        <v>135.99387938793879</v>
       </c>
       <c r="M138">
         <v>136</v>
       </c>
       <c r="N138">
         <f t="shared" si="5"/>
-        <v>60.526732673267304</v>
+        <v>-6.1206120612098402E-3</v>
       </c>
     </row>
     <row r="139" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L139">
         <f t="shared" si="4"/>
-        <v>197.97178217821781</v>
+        <v>136.99383438343835</v>
       </c>
       <c r="M139">
         <v>137</v>
       </c>
       <c r="N139">
         <f t="shared" si="5"/>
-        <v>60.971782178217808</v>
+        <v>-6.1656165616454928E-3</v>
       </c>
     </row>
     <row r="140" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L140">
         <f t="shared" si="4"/>
-        <v>199.41683168316831</v>
+        <v>137.99378937893789</v>
       </c>
       <c r="M140">
         <v>138</v>
       </c>
       <c r="N140">
         <f t="shared" si="5"/>
-        <v>61.416831683168311</v>
+        <v>-6.210621062109567E-3</v>
       </c>
     </row>
     <row r="141" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L141">
         <f t="shared" si="4"/>
-        <v>200.86188118811884</v>
+        <v>138.99374437443745</v>
       </c>
       <c r="M141">
         <v>139</v>
       </c>
       <c r="N141">
         <f t="shared" si="5"/>
-        <v>61.861881188118844</v>
+        <v>-6.2556255625452195E-3</v>
       </c>
     </row>
     <row r="142" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L142">
         <f t="shared" si="4"/>
-        <v>202.30693069306932</v>
+        <v>139.99369936993699</v>
       </c>
       <c r="M142">
         <v>140</v>
       </c>
       <c r="N142">
         <f t="shared" si="5"/>
-        <v>62.306930693069319</v>
+        <v>-6.3006300630092937E-3</v>
       </c>
     </row>
     <row r="143" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L143">
         <f t="shared" si="4"/>
-        <v>203.75198019801979</v>
+        <v>140.99365436543653</v>
       </c>
       <c r="M143">
         <v>141</v>
       </c>
       <c r="N143">
         <f t="shared" si="5"/>
-        <v>62.751980198019794</v>
+        <v>-6.345634563473368E-3</v>
       </c>
     </row>
     <row r="144" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L144">
         <f t="shared" si="4"/>
-        <v>205.1970297029703</v>
+        <v>141.99360936093609</v>
       </c>
       <c r="M144">
         <v>142</v>
       </c>
       <c r="N144">
         <f t="shared" si="5"/>
-        <v>63.197029702970298</v>
+        <v>-6.3906390639090205E-3</v>
       </c>
     </row>
     <row r="145" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L145">
         <f t="shared" si="4"/>
-        <v>206.64207920792077</v>
+        <v>142.99356435643563</v>
       </c>
       <c r="M145">
         <v>143</v>
       </c>
       <c r="N145">
         <f t="shared" si="5"/>
-        <v>63.642079207920773</v>
+        <v>-6.4356435643730947E-3</v>
       </c>
     </row>
     <row r="146" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L146">
         <f t="shared" si="4"/>
-        <v>208.0871287128713</v>
+        <v>143.99351935193519</v>
       </c>
       <c r="M146">
         <v>144</v>
       </c>
       <c r="N146">
         <f t="shared" si="5"/>
-        <v>64.087128712871305</v>
+        <v>-6.4806480648087472E-3</v>
       </c>
     </row>
     <row r="147" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L147">
         <f t="shared" si="4"/>
-        <v>209.53217821782178</v>
+        <v>144.99347434743476</v>
       </c>
       <c r="M147">
         <v>145</v>
       </c>
       <c r="N147">
         <f t="shared" si="5"/>
-        <v>64.53217821782178</v>
+        <v>-6.5256525652443997E-3</v>
       </c>
     </row>
     <row r="148" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L148">
         <f t="shared" si="4"/>
-        <v>210.97722772277228</v>
+        <v>145.99342934293429</v>
       </c>
       <c r="M148">
         <v>146</v>
       </c>
       <c r="N148">
         <f t="shared" si="5"/>
-        <v>64.977227722772284</v>
+        <v>-6.570657065708474E-3</v>
       </c>
     </row>
     <row r="149" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L149">
         <f t="shared" si="4"/>
-        <v>212.42227722772279</v>
+        <v>146.99338433843386</v>
       </c>
       <c r="M149">
         <v>147</v>
       </c>
       <c r="N149">
         <f t="shared" si="5"/>
-        <v>65.422277227722788</v>
+        <v>-6.6156615661441265E-3</v>
       </c>
     </row>
     <row r="150" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L150">
         <f t="shared" si="4"/>
-        <v>213.86732673267326</v>
+        <v>147.99333933393339</v>
       </c>
       <c r="M150">
         <v>148</v>
       </c>
       <c r="N150">
         <f t="shared" si="5"/>
-        <v>65.867326732673263</v>
+        <v>-6.6606660666082007E-3</v>
       </c>
     </row>
     <row r="151" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L151">
         <f t="shared" si="4"/>
-        <v>215.31237623762377</v>
+        <v>148.99329432943296</v>
       </c>
       <c r="M151">
         <v>149</v>
       </c>
       <c r="N151">
         <f t="shared" si="5"/>
-        <v>66.312376237623766</v>
+        <v>-6.7056705670438532E-3</v>
       </c>
     </row>
     <row r="152" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L152">
         <f t="shared" si="4"/>
-        <v>216.75742574257424</v>
+        <v>149.99324932493249</v>
       </c>
       <c r="M152">
         <v>150</v>
       </c>
       <c r="N152">
         <f t="shared" si="5"/>
-        <v>66.757425742574242</v>
+        <v>-6.7506750675079275E-3</v>
       </c>
     </row>
     <row r="153" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L153">
         <f t="shared" si="4"/>
-        <v>218.20247524752475</v>
+        <v>150.99320432043203</v>
       </c>
       <c r="M153">
         <v>151</v>
       </c>
       <c r="N153">
         <f t="shared" si="5"/>
-        <v>67.202475247524745</v>
+        <v>-6.7956795679720017E-3</v>
       </c>
     </row>
     <row r="154" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L154">
         <f t="shared" si="4"/>
-        <v>219.64752475247525</v>
+        <v>151.99315931593159</v>
       </c>
       <c r="M154">
         <v>152</v>
       </c>
       <c r="N154">
         <f t="shared" si="5"/>
-        <v>67.647524752475249</v>
+        <v>-6.8406840684076542E-3</v>
       </c>
     </row>
     <row r="155" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L155">
         <f t="shared" si="4"/>
-        <v>221.09257425742575</v>
+        <v>152.99311431143113</v>
       </c>
       <c r="M155">
         <v>153</v>
       </c>
       <c r="N155">
         <f t="shared" si="5"/>
-        <v>68.092574257425753</v>
+        <v>-6.8856885688717284E-3</v>
       </c>
     </row>
     <row r="156" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L156">
         <f t="shared" si="4"/>
-        <v>222.53762376237626</v>
+        <v>153.99306930693069</v>
       </c>
       <c r="M156">
         <v>154</v>
       </c>
       <c r="N156">
         <f t="shared" si="5"/>
-        <v>68.537623762376256</v>
+        <v>-6.9306930693073809E-3</v>
       </c>
     </row>
     <row r="157" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L157">
         <f t="shared" si="4"/>
-        <v>223.98267326732673</v>
+        <v>154.99302430243023</v>
       </c>
       <c r="M157">
         <v>155</v>
       </c>
       <c r="N157">
         <f t="shared" si="5"/>
-        <v>68.982673267326732</v>
+        <v>-6.9756975697714552E-3</v>
       </c>
     </row>
     <row r="158" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L158">
         <f t="shared" si="4"/>
-        <v>225.42772277227721</v>
+        <v>155.99297929792979</v>
       </c>
       <c r="M158">
         <v>156</v>
       </c>
       <c r="N158">
         <f t="shared" si="5"/>
-        <v>69.427722772277207</v>
+        <v>-7.0207020702071077E-3</v>
       </c>
     </row>
     <row r="159" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L159">
         <f t="shared" si="4"/>
-        <v>226.87277227722771</v>
+        <v>156.99293429342936</v>
       </c>
       <c r="M159">
         <v>157</v>
       </c>
       <c r="N159">
         <f t="shared" si="5"/>
-        <v>69.87277227722771</v>
+        <v>-7.0657065706427602E-3</v>
       </c>
     </row>
     <row r="160" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L160">
         <f t="shared" si="4"/>
-        <v>228.31782178217821</v>
+        <v>157.99288928892889</v>
       </c>
       <c r="M160">
         <v>158</v>
       </c>
       <c r="N160">
         <f t="shared" si="5"/>
-        <v>70.317821782178214</v>
+        <v>-7.1107110711068344E-3</v>
       </c>
     </row>
     <row r="161" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L161">
         <f t="shared" si="4"/>
-        <v>229.76287128712872</v>
+        <v>158.99284428442846</v>
       </c>
       <c r="M161">
         <v>159</v>
       </c>
       <c r="N161">
         <f t="shared" si="5"/>
-        <v>70.762871287128718</v>
+        <v>-7.1557155715424869E-3</v>
       </c>
     </row>
     <row r="162" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L162">
         <f t="shared" si="4"/>
-        <v>231.20792079207922</v>
+        <v>159.99279927992799</v>
       </c>
       <c r="M162">
         <v>160</v>
       </c>
       <c r="N162">
         <f t="shared" si="5"/>
-        <v>71.207920792079221</v>
+        <v>-7.2007200720065612E-3</v>
       </c>
     </row>
     <row r="163" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L163">
         <f t="shared" si="4"/>
-        <v>232.6529702970297</v>
+        <v>160.99275427542753</v>
       </c>
       <c r="M163">
         <v>161</v>
       </c>
       <c r="N163">
         <f t="shared" si="5"/>
-        <v>71.652970297029697</v>
+        <v>-7.2457245724706354E-3</v>
       </c>
     </row>
     <row r="164" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L164">
         <f t="shared" si="4"/>
-        <v>234.0980198019802</v>
+        <v>161.99270927092709</v>
       </c>
       <c r="M164">
         <v>162</v>
       </c>
       <c r="N164">
         <f t="shared" si="5"/>
-        <v>72.0980198019802</v>
+        <v>-7.2907290729062879E-3</v>
       </c>
     </row>
     <row r="165" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L165">
         <f t="shared" si="4"/>
-        <v>235.54306930693068</v>
+        <v>162.99266426642663</v>
       </c>
       <c r="M165">
         <v>163</v>
       </c>
       <c r="N165">
         <f t="shared" si="5"/>
-        <v>72.543069306930676</v>
+        <v>-7.3357335733703621E-3</v>
       </c>
     </row>
     <row r="166" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L166">
         <f t="shared" si="4"/>
-        <v>236.98811881188118</v>
+        <v>163.99261926192619</v>
       </c>
       <c r="M166">
         <v>164</v>
       </c>
       <c r="N166">
         <f t="shared" si="5"/>
-        <v>72.988118811881179</v>
+        <v>-7.3807380738060147E-3</v>
       </c>
     </row>
     <row r="167" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L167">
         <f t="shared" si="4"/>
-        <v>238.43316831683168</v>
+        <v>164.99257425742573</v>
       </c>
       <c r="M167">
         <v>165</v>
       </c>
       <c r="N167">
         <f t="shared" si="5"/>
-        <v>73.433168316831683</v>
+        <v>-7.4257425742700889E-3</v>
       </c>
     </row>
     <row r="168" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L168">
         <f t="shared" si="4"/>
-        <v>239.87821782178219</v>
+        <v>165.99252925292529</v>
       </c>
       <c r="M168">
         <v>166</v>
       </c>
       <c r="N168">
         <f t="shared" si="5"/>
-        <v>73.878217821782187</v>
+        <v>-7.4707470747057414E-3</v>
       </c>
     </row>
     <row r="169" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L169">
         <f t="shared" si="4"/>
-        <v>241.32326732673269</v>
+        <v>166.99248424842486</v>
       </c>
       <c r="M169">
         <v>167</v>
       </c>
       <c r="N169">
         <f t="shared" si="5"/>
-        <v>74.32326732673269</v>
+        <v>-7.5157515751413939E-3</v>
       </c>
     </row>
     <row r="170" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L170">
         <f t="shared" si="4"/>
-        <v>242.76831683168317</v>
+        <v>167.99243924392439</v>
       </c>
       <c r="M170">
         <v>168</v>
       </c>
       <c r="N170">
         <f t="shared" si="5"/>
-        <v>74.768316831683165</v>
+        <v>-7.5607560756054681E-3</v>
       </c>
     </row>
     <row r="171" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L171">
         <f t="shared" si="4"/>
-        <v>244.21336633663367</v>
+        <v>168.99239423942396</v>
       </c>
       <c r="M171">
         <v>169</v>
       </c>
       <c r="N171">
         <f t="shared" si="5"/>
-        <v>75.213366336633669</v>
+        <v>-7.6057605760411207E-3</v>
       </c>
     </row>
     <row r="172" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L172">
         <f t="shared" si="4"/>
-        <v>245.65841584158414</v>
+        <v>169.99234923492349</v>
       </c>
       <c r="M172">
         <v>170</v>
       </c>
       <c r="N172">
         <f t="shared" si="5"/>
-        <v>75.658415841584144</v>
+        <v>-7.6507650765051949E-3</v>
       </c>
     </row>
     <row r="173" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L173">
         <f t="shared" si="4"/>
-        <v>247.10346534653465</v>
+        <v>170.99230423042303</v>
       </c>
       <c r="M173">
         <v>171</v>
       </c>
       <c r="N173">
         <f t="shared" si="5"/>
-        <v>76.103465346534648</v>
+        <v>-7.6957695769692691E-3</v>
       </c>
     </row>
     <row r="174" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L174">
         <f t="shared" si="4"/>
-        <v>248.54851485148518</v>
+        <v>171.9922592259226</v>
       </c>
       <c r="M174">
         <v>172</v>
       </c>
       <c r="N174">
         <f t="shared" si="5"/>
-        <v>76.54851485148518</v>
+        <v>-7.7407740774049216E-3</v>
       </c>
     </row>
     <row r="175" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L175">
         <f t="shared" si="4"/>
-        <v>249.99356435643566</v>
+        <v>172.99221422142213</v>
       </c>
       <c r="M175">
         <v>173</v>
       </c>
       <c r="N175">
         <f t="shared" si="5"/>
-        <v>76.993564356435655</v>
+        <v>-7.7857785778689959E-3</v>
       </c>
     </row>
     <row r="176" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L176">
         <f t="shared" si="4"/>
-        <v>251.43861386138616</v>
+        <v>173.9921692169217</v>
       </c>
       <c r="M176">
         <v>174</v>
       </c>
       <c r="N176">
         <f t="shared" si="5"/>
-        <v>77.438613861386159</v>
+        <v>-7.8307830783046484E-3</v>
       </c>
     </row>
     <row r="177" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L177">
         <f t="shared" si="4"/>
-        <v>252.88366336633663</v>
+        <v>174.99212421242123</v>
       </c>
       <c r="M177">
         <v>175</v>
       </c>
       <c r="N177">
         <f t="shared" si="5"/>
-        <v>77.883663366336634</v>
+        <v>-7.8757875787687226E-3</v>
       </c>
     </row>
     <row r="178" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L178">
         <f t="shared" si="4"/>
-        <v>254.32871287128711</v>
+        <v>175.99207920792077</v>
       </c>
       <c r="M178">
         <v>176</v>
       </c>
       <c r="N178">
         <f t="shared" si="5"/>
-        <v>78.328712871287109</v>
+        <v>-7.9207920792327968E-3</v>
       </c>
     </row>
     <row r="179" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L179">
         <f t="shared" si="4"/>
-        <v>255.77376237623761</v>
+        <v>176.99203420342036</v>
       </c>
       <c r="M179">
         <v>177</v>
       </c>
       <c r="N179">
         <f t="shared" si="5"/>
-        <v>78.773762376237613</v>
+        <v>-7.9657965796400276E-3</v>
       </c>
     </row>
     <row r="180" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L180">
         <f t="shared" si="4"/>
-        <v>257.21881188118812</v>
+        <v>177.9919891989199</v>
       </c>
       <c r="M180">
         <v>178</v>
       </c>
       <c r="N180">
         <f t="shared" si="5"/>
-        <v>79.218811881188117</v>
+        <v>-8.0108010801041019E-3</v>
       </c>
     </row>
     <row r="181" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L181">
         <f t="shared" si="4"/>
-        <v>258.66386138613865</v>
+        <v>178.99194419441946</v>
       </c>
       <c r="M181">
         <v>179</v>
       </c>
       <c r="N181">
         <f t="shared" si="5"/>
-        <v>79.663861386138649</v>
+        <v>-8.0558055805397544E-3</v>
       </c>
     </row>
     <row r="182" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L182">
         <f t="shared" si="4"/>
-        <v>260.10891089108912</v>
+        <v>179.991899189919</v>
       </c>
       <c r="M182">
         <v>180</v>
       </c>
       <c r="N182">
         <f t="shared" si="5"/>
-        <v>80.108910891089124</v>
+        <v>-8.1008100810038286E-3</v>
       </c>
     </row>
     <row r="183" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L183">
         <f t="shared" si="4"/>
-        <v>261.5539603960396</v>
+        <v>180.99185418541853</v>
       </c>
       <c r="M183">
         <v>181</v>
       </c>
       <c r="N183">
         <f t="shared" si="5"/>
-        <v>80.553960396039599</v>
+        <v>-8.1458145814679028E-3</v>
       </c>
     </row>
     <row r="184" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L184">
         <f t="shared" si="4"/>
-        <v>262.99900990099007</v>
+        <v>181.9918091809181</v>
       </c>
       <c r="M184">
         <v>182</v>
       </c>
       <c r="N184">
         <f t="shared" si="5"/>
-        <v>80.999009900990075</v>
+        <v>-8.1908190819035553E-3</v>
       </c>
     </row>
     <row r="185" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L185">
         <f t="shared" si="4"/>
-        <v>264.44405940594061</v>
+        <v>182.99176417641763</v>
       </c>
       <c r="M185">
         <v>183</v>
       </c>
       <c r="N185">
         <f t="shared" si="5"/>
-        <v>81.444059405940607</v>
+        <v>-8.2358235823676296E-3</v>
       </c>
     </row>
     <row r="186" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L186">
         <f t="shared" si="4"/>
-        <v>265.88910891089108</v>
+        <v>183.9917191719172</v>
       </c>
       <c r="M186">
         <v>184</v>
       </c>
       <c r="N186">
         <f t="shared" si="5"/>
-        <v>81.889108910891082</v>
+        <v>-8.2808280828032821E-3</v>
       </c>
     </row>
     <row r="187" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L187">
         <f t="shared" si="4"/>
-        <v>267.33415841584156</v>
+        <v>184.99167416741673</v>
       </c>
       <c r="M187">
         <v>185</v>
       </c>
       <c r="N187">
         <f t="shared" si="5"/>
-        <v>82.334158415841557</v>
+        <v>-8.3258325832673563E-3</v>
       </c>
     </row>
     <row r="188" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L188">
         <f t="shared" si="4"/>
-        <v>268.77920792079209</v>
+        <v>185.99162916291627</v>
       </c>
       <c r="M188">
         <v>186</v>
       </c>
       <c r="N188">
         <f t="shared" si="5"/>
-        <v>82.779207920792089</v>
+        <v>-8.3708370837314305E-3</v>
       </c>
     </row>
     <row r="189" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L189">
         <f t="shared" si="4"/>
-        <v>270.22425742574256</v>
+        <v>186.99158415841586</v>
       </c>
       <c r="M189">
         <v>187</v>
       </c>
       <c r="N189">
         <f t="shared" si="5"/>
-        <v>83.224257425742564</v>
+        <v>-8.4158415841386613E-3</v>
       </c>
     </row>
     <row r="190" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L190">
         <f t="shared" si="4"/>
-        <v>271.6693069306931</v>
+        <v>187.9915391539154</v>
       </c>
       <c r="M190">
         <v>188</v>
       </c>
       <c r="N190">
         <f t="shared" si="5"/>
-        <v>83.669306930693097</v>
+        <v>-8.4608460846027356E-3</v>
       </c>
     </row>
     <row r="191" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L191">
         <f t="shared" si="4"/>
-        <v>273.11435643564357</v>
+        <v>188.99149414941496</v>
       </c>
       <c r="M191">
         <v>189</v>
       </c>
       <c r="N191">
         <f t="shared" si="5"/>
-        <v>84.114356435643572</v>
+        <v>-8.5058505850383881E-3</v>
       </c>
     </row>
     <row r="192" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L192">
         <f t="shared" si="4"/>
-        <v>274.55940594059405</v>
+        <v>189.9914491449145</v>
       </c>
       <c r="M192">
         <v>190</v>
       </c>
       <c r="N192">
         <f t="shared" si="5"/>
-        <v>84.559405940594047</v>
+        <v>-8.5508550855024623E-3</v>
       </c>
     </row>
     <row r="193" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L193">
         <f t="shared" si="4"/>
-        <v>276.00445544554452</v>
+        <v>190.99140414041403</v>
       </c>
       <c r="M193">
         <v>191</v>
       </c>
       <c r="N193">
         <f t="shared" si="5"/>
-        <v>85.004455445544522</v>
+        <v>-8.5958595859665365E-3</v>
       </c>
     </row>
     <row r="194" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L194">
-        <f t="shared" ref="L194:L257" si="6">(M194+($B$12*M194)*($B$13/($B$13+$B$14))*(1/(1+B208*M194)))-($B$15*M194)</f>
-        <v>277.449504950495</v>
+        <f t="shared" ref="L194:L229" si="6">(M194+($B$12*M194)*($B$13/($B$13+$B$14))*(1/(1+B208*M194)))-($B$15*M194)</f>
+        <v>191.9913591359136</v>
       </c>
       <c r="M194">
         <v>192</v>
       </c>
       <c r="N194">
         <f t="shared" si="5"/>
-        <v>85.449504950494998</v>
+        <v>-8.6408640864021891E-3</v>
       </c>
     </row>
     <row r="195" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L195">
         <f t="shared" si="6"/>
-        <v>278.89455445544559</v>
+        <v>192.99131413141313</v>
       </c>
       <c r="M195">
         <v>193</v>
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N229" si="7">L195-M195</f>
-        <v>85.894554455445586</v>
+        <v>-8.6858685868662633E-3</v>
       </c>
     </row>
     <row r="196" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L196">
         <f t="shared" si="6"/>
-        <v>280.33960396039606</v>
+        <v>193.9912691269127</v>
       </c>
       <c r="M196">
         <v>194</v>
       </c>
       <c r="N196">
         <f t="shared" si="7"/>
-        <v>86.339603960396062</v>
+        <v>-8.7308730873019158E-3</v>
       </c>
     </row>
     <row r="197" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L197">
         <f t="shared" si="6"/>
-        <v>281.78465346534654</v>
+        <v>194.99122412241223</v>
       </c>
       <c r="M197">
         <v>195</v>
       </c>
       <c r="N197">
         <f t="shared" si="7"/>
-        <v>86.784653465346537</v>
+        <v>-8.77587758776599E-3</v>
       </c>
     </row>
     <row r="198" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L198">
         <f t="shared" si="6"/>
-        <v>283.22970297029701</v>
+        <v>195.99117911791177</v>
       </c>
       <c r="M198">
         <v>196</v>
       </c>
       <c r="N198">
         <f t="shared" si="7"/>
-        <v>87.229702970297012</v>
+        <v>-8.8208820882300643E-3</v>
       </c>
     </row>
     <row r="199" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L199">
         <f t="shared" si="6"/>
-        <v>284.67475247524749</v>
+        <v>196.99113411341133</v>
       </c>
       <c r="M199">
         <v>197</v>
       </c>
       <c r="N199">
         <f t="shared" si="7"/>
-        <v>87.674752475247487</v>
+        <v>-8.8658865886657168E-3</v>
       </c>
     </row>
     <row r="200" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L200">
         <f t="shared" si="6"/>
-        <v>286.11980198019808</v>
+        <v>197.99108910891087</v>
       </c>
       <c r="M200">
         <v>198</v>
       </c>
       <c r="N200">
         <f t="shared" si="7"/>
-        <v>88.119801980198076</v>
+        <v>-8.910891089129791E-3</v>
       </c>
     </row>
     <row r="201" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L201">
         <f t="shared" si="6"/>
-        <v>287.56485148514849</v>
+        <v>198.99104410441046</v>
       </c>
       <c r="M201">
         <v>199</v>
       </c>
       <c r="N201">
         <f t="shared" si="7"/>
-        <v>88.564851485148495</v>
+        <v>-8.9558955895370218E-3</v>
       </c>
     </row>
     <row r="202" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L202">
         <f t="shared" si="6"/>
-        <v>289.00990099009903</v>
+        <v>199.99099909991</v>
       </c>
       <c r="M202">
         <v>200</v>
       </c>
       <c r="N202">
         <f t="shared" si="7"/>
-        <v>89.009900990099027</v>
+        <v>-9.000900090001096E-3</v>
       </c>
     </row>
     <row r="203" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L203">
         <f t="shared" si="6"/>
-        <v>290.4549504950495</v>
+        <v>200.99095409540953</v>
       </c>
       <c r="M203">
         <v>201</v>
       </c>
       <c r="N203">
         <f t="shared" si="7"/>
-        <v>89.454950495049502</v>
+        <v>-9.0459045904651703E-3</v>
       </c>
     </row>
     <row r="204" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L204">
         <f t="shared" si="6"/>
-        <v>291.89999999999998</v>
+        <v>201.9909090909091</v>
       </c>
       <c r="M204">
         <v>202</v>
       </c>
       <c r="N204">
         <f t="shared" si="7"/>
-        <v>89.899999999999977</v>
+        <v>-9.0909090909008228E-3</v>
       </c>
     </row>
     <row r="205" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L205">
         <f t="shared" si="6"/>
-        <v>293.34504950495051</v>
+        <v>202.99086408640864</v>
       </c>
       <c r="M205">
         <v>203</v>
       </c>
       <c r="N205">
         <f t="shared" si="7"/>
-        <v>90.345049504950509</v>
+        <v>-9.135913591364897E-3</v>
       </c>
     </row>
     <row r="206" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L206">
         <f t="shared" si="6"/>
-        <v>294.79009900990098</v>
+        <v>203.9908190819082</v>
       </c>
       <c r="M206">
         <v>204</v>
       </c>
       <c r="N206">
         <f t="shared" si="7"/>
-        <v>90.790099009900985</v>
+        <v>-9.1809180918005495E-3</v>
       </c>
     </row>
     <row r="207" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L207">
         <f t="shared" si="6"/>
-        <v>296.23514851485152</v>
+        <v>204.99077407740774</v>
       </c>
       <c r="M207">
         <v>205</v>
       </c>
       <c r="N207">
         <f t="shared" si="7"/>
-        <v>91.235148514851517</v>
+        <v>-9.2259225922646237E-3</v>
       </c>
     </row>
     <row r="208" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L208">
         <f t="shared" si="6"/>
-        <v>297.68019801980194</v>
+        <v>205.99072907290727</v>
       </c>
       <c r="M208">
         <v>206</v>
       </c>
       <c r="N208">
         <f t="shared" si="7"/>
-        <v>91.680198019801935</v>
+        <v>-9.270927092728698E-3</v>
       </c>
     </row>
     <row r="209" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L209">
         <f t="shared" si="6"/>
-        <v>299.12524752475247</v>
+        <v>206.99068406840684</v>
       </c>
       <c r="M209">
         <v>207</v>
       </c>
       <c r="N209">
         <f t="shared" si="7"/>
-        <v>92.125247524752467</v>
+        <v>-9.3159315931643505E-3</v>
       </c>
     </row>
     <row r="210" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L210">
         <f t="shared" si="6"/>
-        <v>300.570297029703</v>
+        <v>207.99063906390637</v>
       </c>
       <c r="M210">
         <v>208</v>
       </c>
       <c r="N210">
         <f t="shared" si="7"/>
-        <v>92.570297029702999</v>
+        <v>-9.3609360936284247E-3</v>
       </c>
     </row>
     <row r="211" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L211">
         <f t="shared" si="6"/>
-        <v>302.01534653465347</v>
+        <v>208.99059405940596</v>
       </c>
       <c r="M211">
         <v>209</v>
       </c>
       <c r="N211">
         <f t="shared" si="7"/>
-        <v>93.015346534653474</v>
+        <v>-9.4059405940356555E-3</v>
       </c>
     </row>
     <row r="212" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L212">
         <f t="shared" si="6"/>
-        <v>303.46039603960395</v>
+        <v>209.9905490549055</v>
       </c>
       <c r="M212">
         <v>210</v>
       </c>
       <c r="N212">
         <f t="shared" si="7"/>
-        <v>93.46039603960395</v>
+        <v>-9.4509450944997297E-3</v>
       </c>
     </row>
     <row r="213" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L213">
         <f t="shared" si="6"/>
-        <v>304.90544554455442</v>
+        <v>210.99050405040504</v>
       </c>
       <c r="M213">
         <v>211</v>
       </c>
       <c r="N213">
         <f t="shared" si="7"/>
-        <v>93.905445544554425</v>
+        <v>-9.495949594963804E-3</v>
       </c>
     </row>
     <row r="214" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L214">
         <f t="shared" si="6"/>
-        <v>306.35049504950496</v>
+        <v>211.9904590459046</v>
       </c>
       <c r="M214">
         <v>212</v>
       </c>
       <c r="N214">
         <f t="shared" si="7"/>
-        <v>94.350495049504957</v>
+        <v>-9.5409540953994565E-3</v>
       </c>
     </row>
     <row r="215" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L215">
         <f t="shared" si="6"/>
-        <v>307.79554455445543</v>
+        <v>212.99041404140414</v>
       </c>
       <c r="M215">
         <v>213</v>
       </c>
       <c r="N215">
         <f t="shared" si="7"/>
-        <v>94.795544554455432</v>
+        <v>-9.5859585958635307E-3</v>
       </c>
     </row>
     <row r="216" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L216">
         <f t="shared" si="6"/>
-        <v>309.24059405940596</v>
+        <v>213.9903690369037</v>
       </c>
       <c r="M216">
         <v>214</v>
       </c>
       <c r="N216">
         <f t="shared" si="7"/>
-        <v>95.240594059405964</v>
+        <v>-9.6309630962991832E-3</v>
       </c>
     </row>
     <row r="217" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L217">
         <f t="shared" si="6"/>
-        <v>310.68564356435644</v>
+        <v>214.99032403240324</v>
       </c>
       <c r="M217">
         <v>215</v>
       </c>
       <c r="N217">
         <f t="shared" si="7"/>
-        <v>95.68564356435644</v>
+        <v>-9.6759675967632575E-3</v>
       </c>
     </row>
     <row r="218" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L218">
         <f t="shared" si="6"/>
-        <v>312.13069306930691</v>
+        <v>215.99027902790277</v>
       </c>
       <c r="M218">
         <v>216</v>
       </c>
       <c r="N218">
         <f t="shared" si="7"/>
-        <v>96.130693069306915</v>
+        <v>-9.7209720972273317E-3</v>
       </c>
     </row>
     <row r="219" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L219">
         <f t="shared" si="6"/>
-        <v>313.57574257425739</v>
+        <v>216.99023402340234</v>
       </c>
       <c r="M219">
         <v>217</v>
       </c>
       <c r="N219">
         <f t="shared" si="7"/>
-        <v>96.57574257425739</v>
+        <v>-9.7659765976629842E-3</v>
       </c>
     </row>
     <row r="220" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L220">
         <f t="shared" si="6"/>
-        <v>315.02079207920792</v>
+        <v>217.99018901890187</v>
       </c>
       <c r="M220">
         <v>218</v>
       </c>
       <c r="N220">
         <f t="shared" si="7"/>
-        <v>97.020792079207922</v>
+        <v>-9.8109810981270584E-3</v>
       </c>
     </row>
     <row r="221" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L221">
         <f t="shared" si="6"/>
-        <v>316.46584158415845</v>
+        <v>218.99014401440144</v>
       </c>
       <c r="M221">
         <v>219</v>
       </c>
       <c r="N221">
         <f t="shared" si="7"/>
-        <v>97.465841584158454</v>
+        <v>-9.8559855985627109E-3</v>
       </c>
     </row>
     <row r="222" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L222">
         <f t="shared" si="6"/>
-        <v>317.91089108910893</v>
+        <v>219.990099009901</v>
       </c>
       <c r="M222">
         <v>220</v>
       </c>
       <c r="N222">
         <f t="shared" si="7"/>
-        <v>97.910891089108929</v>
+        <v>-9.9009900989983635E-3</v>
       </c>
     </row>
     <row r="223" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L223">
         <f t="shared" si="6"/>
-        <v>319.3559405940594</v>
+        <v>220.99005400540054</v>
       </c>
       <c r="M223">
         <v>221</v>
       </c>
       <c r="N223">
         <f t="shared" si="7"/>
-        <v>98.355940594059405</v>
+        <v>-9.9459945994624377E-3</v>
       </c>
     </row>
     <row r="224" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L224">
         <f t="shared" si="6"/>
-        <v>320.80099009900988</v>
+        <v>221.9900090009001</v>
       </c>
       <c r="M224">
         <v>222</v>
       </c>
       <c r="N224">
         <f t="shared" si="7"/>
-        <v>98.80099009900988</v>
+        <v>-9.9909990998980902E-3</v>
       </c>
     </row>
     <row r="225" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L225">
         <f t="shared" si="6"/>
-        <v>322.24603960396041</v>
+        <v>222.98996399639964</v>
       </c>
       <c r="M225">
         <v>223</v>
       </c>
       <c r="N225">
         <f t="shared" si="7"/>
-        <v>99.246039603960412</v>
+        <v>-1.0036003600362164E-2</v>
       </c>
     </row>
     <row r="226" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L226">
         <f t="shared" si="6"/>
-        <v>323.69108910891089</v>
+        <v>223.9899189918992</v>
       </c>
       <c r="M226">
         <v>224</v>
       </c>
       <c r="N226">
         <f t="shared" si="7"/>
-        <v>99.691089108910887</v>
+        <v>-1.0081008100797817E-2</v>
       </c>
     </row>
     <row r="227" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L227">
         <f t="shared" si="6"/>
-        <v>325.13613861386136</v>
+        <v>224.98987398739874</v>
       </c>
       <c r="M227">
         <v>225</v>
       </c>
       <c r="N227">
         <f t="shared" si="7"/>
-        <v>100.13613861386136</v>
+        <v>-1.0126012601261891E-2</v>
       </c>
     </row>
     <row r="228" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L228">
         <f t="shared" si="6"/>
-        <v>326.58118811881189</v>
+        <v>225.98982898289827</v>
       </c>
       <c r="M228">
         <v>226</v>
       </c>
       <c r="N228">
         <f t="shared" si="7"/>
-        <v>100.58118811881189</v>
+        <v>-1.0171017101725965E-2</v>
       </c>
     </row>
     <row r="229" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L229">
         <f t="shared" si="6"/>
-        <v>328.02623762376237</v>
+        <v>226.98978397839784</v>
       </c>
       <c r="M229">
         <v>227</v>
       </c>
       <c r="N229">
         <f t="shared" si="7"/>
-        <v>101.02623762376237</v>
+        <v>-1.0216021602161618E-2</v>
       </c>
     </row>
   </sheetData>
